--- a/src/path_planning/test_scripts/Testing.xlsx
+++ b/src/path_planning/test_scripts/Testing.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1290,6 +1290,39 @@
         <v>0.1180344612612334</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.009621207843739724</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.2335480718435533</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1699024050833353</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.01924044167894088</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.2316540184638475</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1679318969715666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.01924044167894088</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.2316540184638475</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1679318969715666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/path_planning/test_scripts/Testing.xlsx
+++ b/src/path_planning/test_scripts/Testing.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,914 +412,5259 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C477"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.009613556637145079</v>
+        <v>9.753038406761162</v>
       </c>
       <c r="B1" t="n">
-        <v>0.2336584592055817</v>
+        <v>-9.748417666756765</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1696390565515061</v>
+        <v>16.07004714283782</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01923449328572643</v>
+        <v>9.047192379377314</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2317579225406269</v>
+        <v>-9.042681150874198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1676831581929131</v>
+        <v>16.00907702084044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02885542993430779</v>
+        <v>8.341346351993467</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2298573858756722</v>
+        <v>-8.336944634991632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1657272598343201</v>
+        <v>15.94810689884306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03847636658288914</v>
+        <v>7.63550032460962</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2279568492107174</v>
+        <v>-7.631208119109064</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1637713614757271</v>
+        <v>15.88713677684568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.03847636658288914</v>
+        <v>6.929654297225772</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2279568492107174</v>
+        <v>-6.925471603226496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1637713614757271</v>
+        <v>15.8261666548483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04809730323147049</v>
+        <v>6.223808269841925</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2260563125457626</v>
+        <v>-6.219735087343929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.161815463117134</v>
+        <v>15.76519653285091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.05771823988005184</v>
+        <v>5.517962242458077</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2241557758808079</v>
+        <v>-5.513998571461362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159859564758541</v>
+        <v>15.70422641085353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.06733917652863319</v>
+        <v>4.81211621507423</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2222552392158531</v>
+        <v>-4.808262055578794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.157903666399948</v>
+        <v>15.64325628885615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.07696011317721455</v>
+        <v>4.106270187690383</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2203547025508983</v>
+        <v>-4.102525539696227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155947768041355</v>
+        <v>15.58228616685877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.08658104982579591</v>
+        <v>3.400424160306535</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2184541658859436</v>
+        <v>-3.39678902381366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.153991869682762</v>
+        <v>15.52131604486139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.09620198647437726</v>
+        <v>2.694578132922687</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2165536292209888</v>
+        <v>-2.691052507931093</v>
       </c>
       <c r="C11" t="n">
-        <v>0.152035971324169</v>
+        <v>15.46034592286401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1058229231229586</v>
+        <v>1.988732105538839</v>
       </c>
       <c r="B12" t="n">
-        <v>0.214653092556034</v>
+        <v>-1.985315992048525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.150080072965576</v>
+        <v>15.39937580086663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.11544385977154</v>
+        <v>1.282886078154992</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2127525558910793</v>
+        <v>-1.279579476165958</v>
       </c>
       <c r="C13" t="n">
-        <v>0.148124174606983</v>
+        <v>15.33840567886925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1250647964201214</v>
+        <v>0.5770400507711441</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2108520192261245</v>
+        <v>-0.573842960283391</v>
       </c>
       <c r="C14" t="n">
-        <v>0.14616827624839</v>
+        <v>15.27743555687187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1346857330687027</v>
+        <v>-0.1288059766127037</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2089514825611697</v>
+        <v>0.1318935555991763</v>
       </c>
       <c r="C15" t="n">
-        <v>0.144212377889797</v>
+        <v>15.21646543487449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1346857330687027</v>
+        <v>-0.8346520039965513</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2089514825611697</v>
+        <v>0.8376300714817434</v>
       </c>
       <c r="C16" t="n">
-        <v>0.144212377889797</v>
+        <v>15.15549531287711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1346857330687027</v>
+        <v>-1.540498031380399</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2089514825611697</v>
+        <v>1.543366587364311</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144212377889797</v>
+        <v>15.09452519087973</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.144306669717284</v>
+        <v>-2.246344058764246</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2070509458962149</v>
+        <v>2.249103103246878</v>
       </c>
       <c r="C18" t="n">
-        <v>0.142256479531204</v>
+        <v>15.03355506888235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1539276063658654</v>
+        <v>-2.952190086148094</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2051504092312602</v>
+        <v>2.954839619129445</v>
       </c>
       <c r="C19" t="n">
-        <v>0.140300581172611</v>
+        <v>14.97258494688497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1635485430144467</v>
+        <v>-3.658036113531942</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2032498725663054</v>
+        <v>3.660576135012013</v>
       </c>
       <c r="C20" t="n">
-        <v>0.138344682814018</v>
+        <v>14.91161482488759</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.009685828561462495</v>
+        <v>-4.36388214091579</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2333479368645674</v>
+        <v>4.36631265089458</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1713275489869806</v>
+        <v>14.85064470289021</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01929129902888014</v>
+        <v>-5.069728168299637</v>
       </c>
       <c r="B22" t="n">
-        <v>0.231467163233441</v>
+        <v>5.072049166777147</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16927873771016</v>
+        <v>14.78967458089283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.02889676949629778</v>
+        <v>-5.775574195683484</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2295863896023146</v>
+        <v>5.777785682659714</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1672299264333394</v>
+        <v>14.72870445889545</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.03850223996371542</v>
+        <v>-6.481420223067332</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2277056159711882</v>
+        <v>6.483522198542282</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1651811151565188</v>
+        <v>14.66773433689807</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.04810771043113306</v>
+        <v>-7.187266250451179</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2258248423400618</v>
+        <v>7.189258714424849</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1631323038796983</v>
+        <v>14.60676421490069</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.0577131808985507</v>
+        <v>-7.893112277835026</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2239440687089354</v>
+        <v>7.894995230307416</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1610834926028777</v>
+        <v>14.54579409290331</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.06731865136596835</v>
+        <v>-8.598958305218874</v>
       </c>
       <c r="B27" t="n">
-        <v>0.222063295077809</v>
+        <v>8.600731746189982</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1590346813260571</v>
+        <v>14.48482397090593</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.07692412183338598</v>
+        <v>-9.304804332602721</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2201825214466826</v>
+        <v>9.306468262072549</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1569858700492366</v>
+        <v>14.42385384890855</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.08652959230080363</v>
+        <v>-10.01065035998657</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2183017478155562</v>
+        <v>10.01220477795512</v>
       </c>
       <c r="C29" t="n">
-        <v>0.154937058772416</v>
+        <v>14.36288372691117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.09613506276822127</v>
+        <v>-10.71649638737042</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2164209741844298</v>
+        <v>10.71794129383768</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1528882474955954</v>
+        <v>14.30191360491379</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1057405332356389</v>
+        <v>-11.42234241475426</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2145402005533034</v>
+        <v>11.42367780972025</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1508394362187748</v>
+        <v>14.24094348291641</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1153460037030566</v>
+        <v>-12.12818844213811</v>
       </c>
       <c r="B32" t="n">
-        <v>0.212659426922177</v>
+        <v>12.12941432560282</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1487906249419542</v>
+        <v>14.17997336091902</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1249514741704742</v>
+        <v>-12.83403446952196</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2107786532910506</v>
+        <v>12.83515084148538</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1467418136651337</v>
+        <v>14.11900323892164</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1345569446378918</v>
+        <v>-13.53988049690581</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2088978796599243</v>
+        <v>13.54088735736795</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1446930023883131</v>
+        <v>14.05803311692426</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1441624151053095</v>
+        <v>-14.24572652428965</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2070171060287979</v>
+        <v>14.24662387325052</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1426441911114925</v>
+        <v>13.99706299492688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1537678855727271</v>
+        <v>-14.9515725516735</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2051363323976715</v>
+        <v>14.95236038913308</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1405953798346719</v>
+        <v>13.9360928729295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1633733560401448</v>
+        <v>-15.65741857905735</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2032555587665451</v>
+        <v>15.65809690501565</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1385465685578514</v>
+        <v>13.87512275093212</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.00954006971651079</v>
+        <v>-16.3632646064412</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2332270858087002</v>
+        <v>16.36383342089822</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1706957033453968</v>
+        <v>13.81415262893474</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.01915435439341544</v>
+        <v>-17.06911063382504</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2313530122865414</v>
+        <v>17.06956993678078</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1686824029244512</v>
+        <v>13.75318250693736</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.02876863907032009</v>
+        <v>-17.77495666120889</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2294789387643826</v>
+        <v>17.77530645266335</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1666691025035056</v>
+        <v>13.69221238493998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.03838292374722475</v>
+        <v>-18.48080268859274</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2276048652422238</v>
+        <v>18.48104296854592</v>
       </c>
       <c r="C41" t="n">
-        <v>0.16465580208256</v>
+        <v>13.6312422629426</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0479972084241294</v>
+        <v>-19.18664871597658</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225730791720065</v>
+        <v>19.18677948442848</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1626425016616144</v>
+        <v>13.57027214094522</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.05761149310103406</v>
+        <v>-19.89249474336043</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2238567181979063</v>
+        <v>19.89251600031105</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1606292012406688</v>
+        <v>13.50930201894784</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.05761149310103406</v>
+        <v>9.753038406761162</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2238567181979063</v>
+        <v>-9.748417666756765</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1606292012406688</v>
+        <v>16.07004714283782</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.06722577777793871</v>
+        <v>9.047192379377314</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2219826446757475</v>
+        <v>-9.042681150874198</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1586159008197232</v>
+        <v>16.00907702084044</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.07684006245484337</v>
+        <v>8.341346351993467</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2201085711535887</v>
+        <v>-8.336944634991632</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1566026003987775</v>
+        <v>15.94810689884306</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.08645434713174803</v>
+        <v>7.63550032460962</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2182344976314299</v>
+        <v>-7.631208119109064</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1545892999778319</v>
+        <v>15.88713677684568</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.09606863180865269</v>
+        <v>6.929654297225772</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2163604241092711</v>
+        <v>-6.925471603226496</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1525759995568863</v>
+        <v>15.8261666548483</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1056829164855573</v>
+        <v>6.223808269841925</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2144863505871124</v>
+        <v>-6.219735087343929</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1505626991359407</v>
+        <v>15.76519653285091</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.115297201162462</v>
+        <v>5.517962242458077</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2126122770649536</v>
+        <v>-5.513998571461362</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1485493987149951</v>
+        <v>15.70422641085353</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1249114858393666</v>
+        <v>4.81211621507423</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2107382035427948</v>
+        <v>-4.808262055578794</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1465360982940495</v>
+        <v>15.64325628885615</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.1345257705162713</v>
+        <v>4.106270187690383</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208864130020636</v>
+        <v>-4.102525539696227</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1445227978731039</v>
+        <v>15.58228616685877</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.144140055193176</v>
+        <v>3.400424160306535</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2069900564984772</v>
+        <v>-3.39678902381366</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1425094974521583</v>
+        <v>15.52131604486139</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1537543398700807</v>
+        <v>2.694578132922687</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2051159829763184</v>
+        <v>-2.691052507931093</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1404961970312127</v>
+        <v>15.46034592286401</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1633686245469853</v>
+        <v>1.988732105538839</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2032419094541597</v>
+        <v>-1.985315992048525</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1384828966102671</v>
+        <v>15.39937580086663</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1504502455738484</v>
+        <v>1.282886078154992</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1865027469716529</v>
+        <v>-1.279579476165958</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1180344612612334</v>
+        <v>15.33840567886925</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1504502455738484</v>
+        <v>0.5770400507711441</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1865027469716529</v>
+        <v>-0.573842960283391</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1180344612612334</v>
+        <v>15.27743555687187</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1504502455738484</v>
+        <v>-0.1288059766127037</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1865027469716529</v>
+        <v>0.1318935555991763</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1180344612612334</v>
+        <v>15.21646543487449</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1504502455738484</v>
+        <v>-0.8346520039965513</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1865027469716529</v>
+        <v>0.8376300714817434</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1180344612612334</v>
+        <v>15.15549531287711</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1504502455738484</v>
+        <v>-1.540498031380399</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1865027469716529</v>
+        <v>1.543366587364311</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1180344612612334</v>
+        <v>15.09452519087973</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1504502455738484</v>
+        <v>-2.246344058764246</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1865027469716529</v>
+        <v>2.249103103246878</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1180344612612334</v>
+        <v>15.03355506888235</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1504502455738484</v>
+        <v>-2.952190086148094</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1865027469716529</v>
+        <v>2.954839619129445</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.97258494688497</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1504502455738484</v>
+        <v>-3.658036113531942</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1865027469716529</v>
+        <v>3.660576135012013</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.91161482488759</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1504502455738484</v>
+        <v>-4.36388214091579</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1865027469716529</v>
+        <v>4.36631265089458</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.85064470289021</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1504502455738484</v>
+        <v>-5.069728168299637</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1865027469716529</v>
+        <v>5.072049166777147</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.78967458089283</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1504502455738484</v>
+        <v>-5.775574195683484</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1865027469716529</v>
+        <v>5.777785682659714</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.72870445889545</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1504502455738484</v>
+        <v>-6.481420223067332</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1865027469716529</v>
+        <v>6.483522198542282</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.66773433689807</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1504502455738484</v>
+        <v>-7.187266250451179</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1865027469716529</v>
+        <v>7.189258714424849</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.60676421490069</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1504502455738484</v>
+        <v>-7.893112277835026</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1865027469716529</v>
+        <v>7.894995230307416</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.54579409290331</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.1504502455738484</v>
+        <v>-8.598958305218874</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1865027469716529</v>
+        <v>8.600731746189982</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.48482397090593</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1504502455738484</v>
+        <v>-9.304804332602721</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1865027469716529</v>
+        <v>9.306468262072549</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.42385384890855</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1504502455738484</v>
+        <v>-10.01065035998657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1865027469716529</v>
+        <v>10.01220477795512</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.36288372691117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1504502455738484</v>
+        <v>-10.71649638737042</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1865027469716529</v>
+        <v>10.71794129383768</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.30191360491379</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1504502455738484</v>
+        <v>-11.42234241475426</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1865027469716529</v>
+        <v>11.42367780972025</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.24094348291641</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1504502455738484</v>
+        <v>-12.12818844213811</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1865027469716529</v>
+        <v>12.12941432560282</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.17997336091902</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1504502455738484</v>
+        <v>-12.83403446952196</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1865027469716529</v>
+        <v>12.83515084148538</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.11900323892164</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1504502455738484</v>
+        <v>-13.53988049690581</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1865027469716529</v>
+        <v>13.54088735736795</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1180344612612334</v>
+        <v>14.05803311692426</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1504502455738484</v>
+        <v>-14.24572652428965</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1865027469716529</v>
+        <v>14.24662387325052</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1180344612612334</v>
+        <v>13.99706299492688</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.1504502455738484</v>
+        <v>-14.9515725516735</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1865027469716529</v>
+        <v>14.95236038913308</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1180344612612334</v>
+        <v>13.9360928729295</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.009621207843739724</v>
+        <v>-15.65741857905735</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2335480718435533</v>
+        <v>15.65809690501565</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1699024050833353</v>
+        <v>13.87512275093212</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.01924044167894088</v>
+        <v>-16.3632646064412</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2316540184638475</v>
+        <v>16.36383342089822</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1679318969715666</v>
+        <v>13.81415262893474</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.01924044167894088</v>
+        <v>-17.06911063382504</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2316540184638475</v>
+        <v>17.06956993678078</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1679318969715666</v>
+        <v>13.75318250693736</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-17.77495666120889</v>
+      </c>
+      <c r="B83" t="n">
+        <v>17.77530645266335</v>
+      </c>
+      <c r="C83" t="n">
+        <v>13.69221238493998</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-18.48080268859274</v>
+      </c>
+      <c r="B84" t="n">
+        <v>18.48104296854592</v>
+      </c>
+      <c r="C84" t="n">
+        <v>13.6312422629426</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-19.18664871597658</v>
+      </c>
+      <c r="B85" t="n">
+        <v>19.18677948442848</v>
+      </c>
+      <c r="C85" t="n">
+        <v>13.57027214094522</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-19.89249474336043</v>
+      </c>
+      <c r="B86" t="n">
+        <v>19.89251600031105</v>
+      </c>
+      <c r="C86" t="n">
+        <v>13.50930201894784</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10.45888443414501</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-10.45415418263933</v>
+      </c>
+      <c r="C87" t="n">
+        <v>16.1310172648352</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>9.753038406761162</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-9.748417666756765</v>
+      </c>
+      <c r="C88" t="n">
+        <v>16.07004714283782</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9.047192379377314</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-9.042681150874198</v>
+      </c>
+      <c r="C89" t="n">
+        <v>16.00907702084044</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>8.341346351993467</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-8.336944634991632</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15.94810689884306</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7.63550032460962</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-7.631208119109064</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15.88713677684568</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6.929654297225772</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-6.925471603226496</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15.8261666548483</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>6.223808269841925</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-6.219735087343929</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15.76519653285091</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5.517962242458077</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-5.513998571461362</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15.70422641085353</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4.81211621507423</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-4.808262055578794</v>
+      </c>
+      <c r="C95" t="n">
+        <v>15.64325628885615</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4.106270187690383</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-4.102525539696227</v>
+      </c>
+      <c r="C96" t="n">
+        <v>15.58228616685877</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3.400424160306535</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-3.39678902381366</v>
+      </c>
+      <c r="C97" t="n">
+        <v>15.52131604486139</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2.694578132922687</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-2.691052507931093</v>
+      </c>
+      <c r="C98" t="n">
+        <v>15.46034592286401</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.988732105538839</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-1.985315992048525</v>
+      </c>
+      <c r="C99" t="n">
+        <v>15.39937580086663</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.282886078154992</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-1.279579476165958</v>
+      </c>
+      <c r="C100" t="n">
+        <v>15.33840567886925</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.5770400507711441</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.573842960283391</v>
+      </c>
+      <c r="C101" t="n">
+        <v>15.27743555687187</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-0.1288059766127037</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1318935555991763</v>
+      </c>
+      <c r="C102" t="n">
+        <v>15.21646543487449</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-0.8346520039965513</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.8376300714817434</v>
+      </c>
+      <c r="C103" t="n">
+        <v>15.15549531287711</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-1.540498031380399</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.543366587364311</v>
+      </c>
+      <c r="C104" t="n">
+        <v>15.09452519087973</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-2.246344058764246</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2.249103103246878</v>
+      </c>
+      <c r="C105" t="n">
+        <v>15.03355506888235</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-2.952190086148094</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2.954839619129445</v>
+      </c>
+      <c r="C106" t="n">
+        <v>14.97258494688497</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-3.658036113531942</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.660576135012013</v>
+      </c>
+      <c r="C107" t="n">
+        <v>14.91161482488759</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-4.36388214091579</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.36631265089458</v>
+      </c>
+      <c r="C108" t="n">
+        <v>14.85064470289021</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-5.069728168299637</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5.072049166777147</v>
+      </c>
+      <c r="C109" t="n">
+        <v>14.78967458089283</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-5.775574195683484</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5.777785682659714</v>
+      </c>
+      <c r="C110" t="n">
+        <v>14.72870445889545</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-6.481420223067332</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.483522198542282</v>
+      </c>
+      <c r="C111" t="n">
+        <v>14.66773433689807</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-7.187266250451179</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7.189258714424849</v>
+      </c>
+      <c r="C112" t="n">
+        <v>14.60676421490069</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-7.893112277835026</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.894995230307416</v>
+      </c>
+      <c r="C113" t="n">
+        <v>14.54579409290331</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-8.598958305218874</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8.600731746189982</v>
+      </c>
+      <c r="C114" t="n">
+        <v>14.48482397090593</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-9.304804332602721</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9.306468262072549</v>
+      </c>
+      <c r="C115" t="n">
+        <v>14.42385384890855</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-10.01065035998657</v>
+      </c>
+      <c r="B116" t="n">
+        <v>10.01220477795512</v>
+      </c>
+      <c r="C116" t="n">
+        <v>14.36288372691117</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-10.71649638737042</v>
+      </c>
+      <c r="B117" t="n">
+        <v>10.71794129383768</v>
+      </c>
+      <c r="C117" t="n">
+        <v>14.30191360491379</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-11.42234241475426</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.42367780972025</v>
+      </c>
+      <c r="C118" t="n">
+        <v>14.24094348291641</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-12.12818844213811</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12.12941432560282</v>
+      </c>
+      <c r="C119" t="n">
+        <v>14.17997336091902</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-12.83403446952196</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12.83515084148538</v>
+      </c>
+      <c r="C120" t="n">
+        <v>14.11900323892164</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-13.53988049690581</v>
+      </c>
+      <c r="B121" t="n">
+        <v>13.54088735736795</v>
+      </c>
+      <c r="C121" t="n">
+        <v>14.05803311692426</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-14.24572652428965</v>
+      </c>
+      <c r="B122" t="n">
+        <v>14.24662387325052</v>
+      </c>
+      <c r="C122" t="n">
+        <v>13.99706299492688</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-14.9515725516735</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14.95236038913308</v>
+      </c>
+      <c r="C123" t="n">
+        <v>13.9360928729295</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-15.65741857905735</v>
+      </c>
+      <c r="B124" t="n">
+        <v>15.65809690501565</v>
+      </c>
+      <c r="C124" t="n">
+        <v>13.87512275093212</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-16.3632646064412</v>
+      </c>
+      <c r="B125" t="n">
+        <v>16.36383342089822</v>
+      </c>
+      <c r="C125" t="n">
+        <v>13.81415262893474</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-17.06911063382504</v>
+      </c>
+      <c r="B126" t="n">
+        <v>17.06956993678078</v>
+      </c>
+      <c r="C126" t="n">
+        <v>13.75318250693736</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-17.77495666120889</v>
+      </c>
+      <c r="B127" t="n">
+        <v>17.77530645266335</v>
+      </c>
+      <c r="C127" t="n">
+        <v>13.69221238493998</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-18.48080268859274</v>
+      </c>
+      <c r="B128" t="n">
+        <v>18.48104296854592</v>
+      </c>
+      <c r="C128" t="n">
+        <v>13.6312422629426</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-19.18664871597658</v>
+      </c>
+      <c r="B129" t="n">
+        <v>19.18677948442848</v>
+      </c>
+      <c r="C129" t="n">
+        <v>13.57027214094522</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-19.89249474336043</v>
+      </c>
+      <c r="B130" t="n">
+        <v>19.89251600031105</v>
+      </c>
+      <c r="C130" t="n">
+        <v>13.50930201894784</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>9.753038406761162</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-9.748417666756765</v>
+      </c>
+      <c r="C131" t="n">
+        <v>16.07004714283782</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9.047192379377314</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-9.042681150874198</v>
+      </c>
+      <c r="C132" t="n">
+        <v>16.00907702084044</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>8.341346351993467</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-8.336944634991632</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15.94810689884306</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>7.63550032460962</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-7.631208119109064</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15.88713677684568</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>6.929654297225772</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-6.925471603226496</v>
+      </c>
+      <c r="C135" t="n">
+        <v>15.8261666548483</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6.223808269841925</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-6.219735087343929</v>
+      </c>
+      <c r="C136" t="n">
+        <v>15.76519653285091</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>5.517962242458077</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-5.513998571461362</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15.70422641085353</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>4.81211621507423</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-4.808262055578794</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15.64325628885615</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4.106270187690383</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-4.102525539696227</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15.58228616685877</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>3.400424160306535</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-3.39678902381366</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15.52131604486139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2.694578132922687</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-2.691052507931093</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.46034592286401</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.988732105538839</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-1.985315992048525</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15.39937580086663</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.282886078154992</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-1.279579476165958</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15.33840567886925</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.5770400507711441</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.573842960283391</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15.27743555687187</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-0.1288059766127037</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.1318935555991763</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15.21646543487449</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-0.8346520039965513</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.8376300714817434</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15.15549531287711</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-1.540498031380399</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.543366587364311</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.09452519087973</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-2.246344058764246</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.249103103246878</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15.03355506888235</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-2.952190086148094</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.954839619129445</v>
+      </c>
+      <c r="C149" t="n">
+        <v>14.97258494688497</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-3.658036113531942</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.660576135012013</v>
+      </c>
+      <c r="C150" t="n">
+        <v>14.91161482488759</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-4.36388214091579</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.36631265089458</v>
+      </c>
+      <c r="C151" t="n">
+        <v>14.85064470289021</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-5.069728168299637</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.072049166777147</v>
+      </c>
+      <c r="C152" t="n">
+        <v>14.78967458089283</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-5.775574195683484</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5.777785682659714</v>
+      </c>
+      <c r="C153" t="n">
+        <v>14.72870445889545</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-6.481420223067332</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.483522198542282</v>
+      </c>
+      <c r="C154" t="n">
+        <v>14.66773433689807</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-7.187266250451179</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7.189258714424849</v>
+      </c>
+      <c r="C155" t="n">
+        <v>14.60676421490069</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-7.893112277835026</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7.894995230307416</v>
+      </c>
+      <c r="C156" t="n">
+        <v>14.54579409290331</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-8.598958305218874</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8.600731746189982</v>
+      </c>
+      <c r="C157" t="n">
+        <v>14.48482397090593</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-9.304804332602721</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9.306468262072549</v>
+      </c>
+      <c r="C158" t="n">
+        <v>14.42385384890855</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-10.01065035998657</v>
+      </c>
+      <c r="B159" t="n">
+        <v>10.01220477795512</v>
+      </c>
+      <c r="C159" t="n">
+        <v>14.36288372691117</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-10.71649638737042</v>
+      </c>
+      <c r="B160" t="n">
+        <v>10.71794129383768</v>
+      </c>
+      <c r="C160" t="n">
+        <v>14.30191360491379</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-11.42234241475426</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.42367780972025</v>
+      </c>
+      <c r="C161" t="n">
+        <v>14.24094348291641</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-12.12818844213811</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.12941432560282</v>
+      </c>
+      <c r="C162" t="n">
+        <v>14.17997336091902</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-12.83403446952196</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.83515084148538</v>
+      </c>
+      <c r="C163" t="n">
+        <v>14.11900323892164</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-13.53988049690581</v>
+      </c>
+      <c r="B164" t="n">
+        <v>13.54088735736795</v>
+      </c>
+      <c r="C164" t="n">
+        <v>14.05803311692426</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-14.24572652428965</v>
+      </c>
+      <c r="B165" t="n">
+        <v>14.24662387325052</v>
+      </c>
+      <c r="C165" t="n">
+        <v>13.99706299492688</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-14.9515725516735</v>
+      </c>
+      <c r="B166" t="n">
+        <v>14.95236038913308</v>
+      </c>
+      <c r="C166" t="n">
+        <v>13.9360928729295</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-15.65741857905735</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15.65809690501565</v>
+      </c>
+      <c r="C167" t="n">
+        <v>13.87512275093212</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-16.3632646064412</v>
+      </c>
+      <c r="B168" t="n">
+        <v>16.36383342089822</v>
+      </c>
+      <c r="C168" t="n">
+        <v>13.81415262893474</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-17.06911063382504</v>
+      </c>
+      <c r="B169" t="n">
+        <v>17.06956993678078</v>
+      </c>
+      <c r="C169" t="n">
+        <v>13.75318250693736</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-17.77495666120889</v>
+      </c>
+      <c r="B170" t="n">
+        <v>17.77530645266335</v>
+      </c>
+      <c r="C170" t="n">
+        <v>13.69221238493998</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-18.48080268859274</v>
+      </c>
+      <c r="B171" t="n">
+        <v>18.48104296854592</v>
+      </c>
+      <c r="C171" t="n">
+        <v>13.6312422629426</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>-19.18664871597658</v>
+      </c>
+      <c r="B172" t="n">
+        <v>19.18677948442848</v>
+      </c>
+      <c r="C172" t="n">
+        <v>13.57027214094522</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>-19.89249474336043</v>
+      </c>
+      <c r="B173" t="n">
+        <v>19.89251600031105</v>
+      </c>
+      <c r="C173" t="n">
+        <v>13.50930201894784</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>9.753038406761162</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-9.748417666756765</v>
+      </c>
+      <c r="C174" t="n">
+        <v>16.07004714283782</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>9.047192379377314</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-9.042681150874198</v>
+      </c>
+      <c r="C175" t="n">
+        <v>16.00907702084044</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>8.341346351993467</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-8.336944634991632</v>
+      </c>
+      <c r="C176" t="n">
+        <v>15.94810689884306</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>7.63550032460962</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-7.631208119109064</v>
+      </c>
+      <c r="C177" t="n">
+        <v>15.88713677684568</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>6.929654297225772</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-6.925471603226496</v>
+      </c>
+      <c r="C178" t="n">
+        <v>15.8261666548483</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>6.223808269841925</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-6.219735087343929</v>
+      </c>
+      <c r="C179" t="n">
+        <v>15.76519653285091</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>5.517962242458077</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-5.513998571461362</v>
+      </c>
+      <c r="C180" t="n">
+        <v>15.70422641085353</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>4.81211621507423</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-4.808262055578794</v>
+      </c>
+      <c r="C181" t="n">
+        <v>15.64325628885615</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>4.106270187690383</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-4.102525539696227</v>
+      </c>
+      <c r="C182" t="n">
+        <v>15.58228616685877</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>3.400424160306535</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-3.39678902381366</v>
+      </c>
+      <c r="C183" t="n">
+        <v>15.52131604486139</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2.694578132922687</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-2.691052507931093</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15.46034592286401</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.988732105538839</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-1.985315992048525</v>
+      </c>
+      <c r="C185" t="n">
+        <v>15.39937580086663</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.282886078154992</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-1.279579476165958</v>
+      </c>
+      <c r="C186" t="n">
+        <v>15.33840567886925</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.5770400507711441</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.573842960283391</v>
+      </c>
+      <c r="C187" t="n">
+        <v>15.27743555687187</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-0.1288059766127037</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.1318935555991763</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.21646543487449</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-0.8346520039965513</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8376300714817434</v>
+      </c>
+      <c r="C189" t="n">
+        <v>15.15549531287711</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-1.540498031380399</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.543366587364311</v>
+      </c>
+      <c r="C190" t="n">
+        <v>15.09452519087973</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-2.246344058764246</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2.249103103246878</v>
+      </c>
+      <c r="C191" t="n">
+        <v>15.03355506888235</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-2.952190086148094</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2.954839619129445</v>
+      </c>
+      <c r="C192" t="n">
+        <v>14.97258494688497</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-3.658036113531942</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.660576135012013</v>
+      </c>
+      <c r="C193" t="n">
+        <v>14.91161482488759</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-4.36388214091579</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.36631265089458</v>
+      </c>
+      <c r="C194" t="n">
+        <v>14.85064470289021</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-5.069728168299637</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.072049166777147</v>
+      </c>
+      <c r="C195" t="n">
+        <v>14.78967458089283</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-5.775574195683484</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.777785682659714</v>
+      </c>
+      <c r="C196" t="n">
+        <v>14.72870445889545</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-6.481420223067332</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6.483522198542282</v>
+      </c>
+      <c r="C197" t="n">
+        <v>14.66773433689807</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-7.187266250451179</v>
+      </c>
+      <c r="B198" t="n">
+        <v>7.189258714424849</v>
+      </c>
+      <c r="C198" t="n">
+        <v>14.60676421490069</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-7.893112277835026</v>
+      </c>
+      <c r="B199" t="n">
+        <v>7.894995230307416</v>
+      </c>
+      <c r="C199" t="n">
+        <v>14.54579409290331</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>-8.598958305218874</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8.600731746189982</v>
+      </c>
+      <c r="C200" t="n">
+        <v>14.48482397090593</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>-9.304804332602721</v>
+      </c>
+      <c r="B201" t="n">
+        <v>9.306468262072549</v>
+      </c>
+      <c r="C201" t="n">
+        <v>14.42385384890855</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>-10.01065035998657</v>
+      </c>
+      <c r="B202" t="n">
+        <v>10.01220477795512</v>
+      </c>
+      <c r="C202" t="n">
+        <v>14.36288372691117</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>-10.71649638737042</v>
+      </c>
+      <c r="B203" t="n">
+        <v>10.71794129383768</v>
+      </c>
+      <c r="C203" t="n">
+        <v>14.30191360491379</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>-11.42234241475426</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11.42367780972025</v>
+      </c>
+      <c r="C204" t="n">
+        <v>14.24094348291641</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>-12.12818844213811</v>
+      </c>
+      <c r="B205" t="n">
+        <v>12.12941432560282</v>
+      </c>
+      <c r="C205" t="n">
+        <v>14.17997336091902</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>-12.83403446952196</v>
+      </c>
+      <c r="B206" t="n">
+        <v>12.83515084148538</v>
+      </c>
+      <c r="C206" t="n">
+        <v>14.11900323892164</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>-13.53988049690581</v>
+      </c>
+      <c r="B207" t="n">
+        <v>13.54088735736795</v>
+      </c>
+      <c r="C207" t="n">
+        <v>14.05803311692426</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>-14.24572652428965</v>
+      </c>
+      <c r="B208" t="n">
+        <v>14.24662387325052</v>
+      </c>
+      <c r="C208" t="n">
+        <v>13.99706299492688</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>-14.9515725516735</v>
+      </c>
+      <c r="B209" t="n">
+        <v>14.95236038913308</v>
+      </c>
+      <c r="C209" t="n">
+        <v>13.9360928729295</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>-15.65741857905735</v>
+      </c>
+      <c r="B210" t="n">
+        <v>15.65809690501565</v>
+      </c>
+      <c r="C210" t="n">
+        <v>13.87512275093212</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>-16.3632646064412</v>
+      </c>
+      <c r="B211" t="n">
+        <v>16.36383342089822</v>
+      </c>
+      <c r="C211" t="n">
+        <v>13.81415262893474</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>-17.06911063382504</v>
+      </c>
+      <c r="B212" t="n">
+        <v>17.06956993678078</v>
+      </c>
+      <c r="C212" t="n">
+        <v>13.75318250693736</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>-17.77495666120889</v>
+      </c>
+      <c r="B213" t="n">
+        <v>17.77530645266335</v>
+      </c>
+      <c r="C213" t="n">
+        <v>13.69221238493998</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>-18.48080268859274</v>
+      </c>
+      <c r="B214" t="n">
+        <v>18.48104296854592</v>
+      </c>
+      <c r="C214" t="n">
+        <v>13.6312422629426</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>-19.18664871597658</v>
+      </c>
+      <c r="B215" t="n">
+        <v>19.18677948442848</v>
+      </c>
+      <c r="C215" t="n">
+        <v>13.57027214094522</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>-19.89249474336043</v>
+      </c>
+      <c r="B216" t="n">
+        <v>19.89251600031105</v>
+      </c>
+      <c r="C216" t="n">
+        <v>13.50930201894784</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>9.753038406761162</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-9.748417666756765</v>
+      </c>
+      <c r="C217" t="n">
+        <v>16.07004714283782</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>9.047192379377314</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-9.042681150874198</v>
+      </c>
+      <c r="C218" t="n">
+        <v>16.00907702084044</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>8.341346351993467</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-8.336944634991632</v>
+      </c>
+      <c r="C219" t="n">
+        <v>15.94810689884306</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>7.63550032460962</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-7.631208119109064</v>
+      </c>
+      <c r="C220" t="n">
+        <v>15.88713677684568</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>6.929654297225772</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-6.925471603226496</v>
+      </c>
+      <c r="C221" t="n">
+        <v>15.8261666548483</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>6.223808269841925</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-6.219735087343929</v>
+      </c>
+      <c r="C222" t="n">
+        <v>15.76519653285091</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>5.517962242458077</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-5.513998571461362</v>
+      </c>
+      <c r="C223" t="n">
+        <v>15.70422641085353</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>4.81211621507423</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-4.808262055578794</v>
+      </c>
+      <c r="C224" t="n">
+        <v>15.64325628885615</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>4.106270187690383</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-4.102525539696227</v>
+      </c>
+      <c r="C225" t="n">
+        <v>15.58228616685877</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>3.400424160306535</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-3.39678902381366</v>
+      </c>
+      <c r="C226" t="n">
+        <v>15.52131604486139</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2.694578132922687</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-2.691052507931093</v>
+      </c>
+      <c r="C227" t="n">
+        <v>15.46034592286401</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1.988732105538839</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-1.985315992048525</v>
+      </c>
+      <c r="C228" t="n">
+        <v>15.39937580086663</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.282886078154992</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-1.279579476165958</v>
+      </c>
+      <c r="C229" t="n">
+        <v>15.33840567886925</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.5770400507711441</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.573842960283391</v>
+      </c>
+      <c r="C230" t="n">
+        <v>15.27743555687187</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>-0.1288059766127037</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.1318935555991763</v>
+      </c>
+      <c r="C231" t="n">
+        <v>15.21646543487449</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>-0.8346520039965513</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.8376300714817434</v>
+      </c>
+      <c r="C232" t="n">
+        <v>15.15549531287711</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>-1.540498031380399</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.543366587364311</v>
+      </c>
+      <c r="C233" t="n">
+        <v>15.09452519087973</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>-2.246344058764246</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2.249103103246878</v>
+      </c>
+      <c r="C234" t="n">
+        <v>15.03355506888235</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>-2.952190086148094</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2.954839619129445</v>
+      </c>
+      <c r="C235" t="n">
+        <v>14.97258494688497</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>-3.658036113531942</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.660576135012013</v>
+      </c>
+      <c r="C236" t="n">
+        <v>14.91161482488759</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>-4.36388214091579</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.36631265089458</v>
+      </c>
+      <c r="C237" t="n">
+        <v>14.85064470289021</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>-5.069728168299637</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5.072049166777147</v>
+      </c>
+      <c r="C238" t="n">
+        <v>14.78967458089283</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>-5.775574195683484</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5.777785682659714</v>
+      </c>
+      <c r="C239" t="n">
+        <v>14.72870445889545</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>-6.481420223067332</v>
+      </c>
+      <c r="B240" t="n">
+        <v>6.483522198542282</v>
+      </c>
+      <c r="C240" t="n">
+        <v>14.66773433689807</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>-7.187266250451179</v>
+      </c>
+      <c r="B241" t="n">
+        <v>7.189258714424849</v>
+      </c>
+      <c r="C241" t="n">
+        <v>14.60676421490069</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>-7.893112277835026</v>
+      </c>
+      <c r="B242" t="n">
+        <v>7.894995230307416</v>
+      </c>
+      <c r="C242" t="n">
+        <v>14.54579409290331</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>-8.598958305218874</v>
+      </c>
+      <c r="B243" t="n">
+        <v>8.600731746189982</v>
+      </c>
+      <c r="C243" t="n">
+        <v>14.48482397090593</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>-9.304804332602721</v>
+      </c>
+      <c r="B244" t="n">
+        <v>9.306468262072549</v>
+      </c>
+      <c r="C244" t="n">
+        <v>14.42385384890855</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>-10.01065035998657</v>
+      </c>
+      <c r="B245" t="n">
+        <v>10.01220477795512</v>
+      </c>
+      <c r="C245" t="n">
+        <v>14.36288372691117</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>-10.71649638737042</v>
+      </c>
+      <c r="B246" t="n">
+        <v>10.71794129383768</v>
+      </c>
+      <c r="C246" t="n">
+        <v>14.30191360491379</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>-11.42234241475426</v>
+      </c>
+      <c r="B247" t="n">
+        <v>11.42367780972025</v>
+      </c>
+      <c r="C247" t="n">
+        <v>14.24094348291641</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>-12.12818844213811</v>
+      </c>
+      <c r="B248" t="n">
+        <v>12.12941432560282</v>
+      </c>
+      <c r="C248" t="n">
+        <v>14.17997336091902</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>-12.83403446952196</v>
+      </c>
+      <c r="B249" t="n">
+        <v>12.83515084148538</v>
+      </c>
+      <c r="C249" t="n">
+        <v>14.11900323892164</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>-13.53988049690581</v>
+      </c>
+      <c r="B250" t="n">
+        <v>13.54088735736795</v>
+      </c>
+      <c r="C250" t="n">
+        <v>14.05803311692426</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>-14.24572652428965</v>
+      </c>
+      <c r="B251" t="n">
+        <v>14.24662387325052</v>
+      </c>
+      <c r="C251" t="n">
+        <v>13.99706299492688</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>-14.9515725516735</v>
+      </c>
+      <c r="B252" t="n">
+        <v>14.95236038913308</v>
+      </c>
+      <c r="C252" t="n">
+        <v>13.9360928729295</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>-15.65741857905735</v>
+      </c>
+      <c r="B253" t="n">
+        <v>15.65809690501565</v>
+      </c>
+      <c r="C253" t="n">
+        <v>13.87512275093212</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>-16.3632646064412</v>
+      </c>
+      <c r="B254" t="n">
+        <v>16.36383342089822</v>
+      </c>
+      <c r="C254" t="n">
+        <v>13.81415262893474</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>-17.06911063382504</v>
+      </c>
+      <c r="B255" t="n">
+        <v>17.06956993678078</v>
+      </c>
+      <c r="C255" t="n">
+        <v>13.75318250693736</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>-17.77495666120889</v>
+      </c>
+      <c r="B256" t="n">
+        <v>17.77530645266335</v>
+      </c>
+      <c r="C256" t="n">
+        <v>13.69221238493998</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>-18.48080268859274</v>
+      </c>
+      <c r="B257" t="n">
+        <v>18.48104296854592</v>
+      </c>
+      <c r="C257" t="n">
+        <v>13.6312422629426</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>-19.18664871597658</v>
+      </c>
+      <c r="B258" t="n">
+        <v>19.18677948442848</v>
+      </c>
+      <c r="C258" t="n">
+        <v>13.57027214094522</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>-19.89249474336043</v>
+      </c>
+      <c r="B259" t="n">
+        <v>19.89251600031105</v>
+      </c>
+      <c r="C259" t="n">
+        <v>13.50930201894784</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>9.753038406761162</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-9.748417666756765</v>
+      </c>
+      <c r="C260" t="n">
+        <v>16.07004714283782</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>9.047192379377314</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-9.042681150874198</v>
+      </c>
+      <c r="C261" t="n">
+        <v>16.00907702084044</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>8.341346351993467</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-8.336944634991632</v>
+      </c>
+      <c r="C262" t="n">
+        <v>15.94810689884306</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>7.63550032460962</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-7.631208119109064</v>
+      </c>
+      <c r="C263" t="n">
+        <v>15.88713677684568</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>6.929654297225772</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-6.925471603226496</v>
+      </c>
+      <c r="C264" t="n">
+        <v>15.8261666548483</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>6.223808269841925</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-6.219735087343929</v>
+      </c>
+      <c r="C265" t="n">
+        <v>15.76519653285091</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>5.517962242458077</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-5.513998571461362</v>
+      </c>
+      <c r="C266" t="n">
+        <v>15.70422641085353</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>4.81211621507423</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-4.808262055578794</v>
+      </c>
+      <c r="C267" t="n">
+        <v>15.64325628885615</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>4.106270187690383</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-4.102525539696227</v>
+      </c>
+      <c r="C268" t="n">
+        <v>15.58228616685877</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>3.400424160306535</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-3.39678902381366</v>
+      </c>
+      <c r="C269" t="n">
+        <v>15.52131604486139</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2.694578132922687</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-2.691052507931093</v>
+      </c>
+      <c r="C270" t="n">
+        <v>15.46034592286401</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1.988732105538839</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-1.985315992048525</v>
+      </c>
+      <c r="C271" t="n">
+        <v>15.39937580086663</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1.282886078154992</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-1.279579476165958</v>
+      </c>
+      <c r="C272" t="n">
+        <v>15.33840567886925</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.5770400507711441</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.573842960283391</v>
+      </c>
+      <c r="C273" t="n">
+        <v>15.27743555687187</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>-0.1288059766127037</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.1318935555991763</v>
+      </c>
+      <c r="C274" t="n">
+        <v>15.21646543487449</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>-0.8346520039965513</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.8376300714817434</v>
+      </c>
+      <c r="C275" t="n">
+        <v>15.15549531287711</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>-1.540498031380399</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1.543366587364311</v>
+      </c>
+      <c r="C276" t="n">
+        <v>15.09452519087973</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>-2.246344058764246</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2.249103103246878</v>
+      </c>
+      <c r="C277" t="n">
+        <v>15.03355506888235</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>-2.952190086148094</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2.954839619129445</v>
+      </c>
+      <c r="C278" t="n">
+        <v>14.97258494688497</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>-3.658036113531942</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3.660576135012013</v>
+      </c>
+      <c r="C279" t="n">
+        <v>14.91161482488759</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>-4.36388214091579</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4.36631265089458</v>
+      </c>
+      <c r="C280" t="n">
+        <v>14.85064470289021</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>-5.069728168299637</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5.072049166777147</v>
+      </c>
+      <c r="C281" t="n">
+        <v>14.78967458089283</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>-5.775574195683484</v>
+      </c>
+      <c r="B282" t="n">
+        <v>5.777785682659714</v>
+      </c>
+      <c r="C282" t="n">
+        <v>14.72870445889545</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>-6.481420223067332</v>
+      </c>
+      <c r="B283" t="n">
+        <v>6.483522198542282</v>
+      </c>
+      <c r="C283" t="n">
+        <v>14.66773433689807</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>-7.187266250451179</v>
+      </c>
+      <c r="B284" t="n">
+        <v>7.189258714424849</v>
+      </c>
+      <c r="C284" t="n">
+        <v>14.60676421490069</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>-7.893112277835026</v>
+      </c>
+      <c r="B285" t="n">
+        <v>7.894995230307416</v>
+      </c>
+      <c r="C285" t="n">
+        <v>14.54579409290331</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>-8.598958305218874</v>
+      </c>
+      <c r="B286" t="n">
+        <v>8.600731746189982</v>
+      </c>
+      <c r="C286" t="n">
+        <v>14.48482397090593</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>-9.304804332602721</v>
+      </c>
+      <c r="B287" t="n">
+        <v>9.306468262072549</v>
+      </c>
+      <c r="C287" t="n">
+        <v>14.42385384890855</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>-10.01065035998657</v>
+      </c>
+      <c r="B288" t="n">
+        <v>10.01220477795512</v>
+      </c>
+      <c r="C288" t="n">
+        <v>14.36288372691117</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>-10.71649638737042</v>
+      </c>
+      <c r="B289" t="n">
+        <v>10.71794129383768</v>
+      </c>
+      <c r="C289" t="n">
+        <v>14.30191360491379</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>-11.42234241475426</v>
+      </c>
+      <c r="B290" t="n">
+        <v>11.42367780972025</v>
+      </c>
+      <c r="C290" t="n">
+        <v>14.24094348291641</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>-12.12818844213811</v>
+      </c>
+      <c r="B291" t="n">
+        <v>12.12941432560282</v>
+      </c>
+      <c r="C291" t="n">
+        <v>14.17997336091902</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>-12.83403446952196</v>
+      </c>
+      <c r="B292" t="n">
+        <v>12.83515084148538</v>
+      </c>
+      <c r="C292" t="n">
+        <v>14.11900323892164</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>-13.53988049690581</v>
+      </c>
+      <c r="B293" t="n">
+        <v>13.54088735736795</v>
+      </c>
+      <c r="C293" t="n">
+        <v>14.05803311692426</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>-14.24572652428965</v>
+      </c>
+      <c r="B294" t="n">
+        <v>14.24662387325052</v>
+      </c>
+      <c r="C294" t="n">
+        <v>13.99706299492688</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>-14.9515725516735</v>
+      </c>
+      <c r="B295" t="n">
+        <v>14.95236038913308</v>
+      </c>
+      <c r="C295" t="n">
+        <v>13.9360928729295</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>-15.65741857905735</v>
+      </c>
+      <c r="B296" t="n">
+        <v>15.65809690501565</v>
+      </c>
+      <c r="C296" t="n">
+        <v>13.87512275093212</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>-16.3632646064412</v>
+      </c>
+      <c r="B297" t="n">
+        <v>16.36383342089822</v>
+      </c>
+      <c r="C297" t="n">
+        <v>13.81415262893474</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>-17.06911063382504</v>
+      </c>
+      <c r="B298" t="n">
+        <v>17.06956993678078</v>
+      </c>
+      <c r="C298" t="n">
+        <v>13.75318250693736</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>-17.77495666120889</v>
+      </c>
+      <c r="B299" t="n">
+        <v>17.77530645266335</v>
+      </c>
+      <c r="C299" t="n">
+        <v>13.69221238493998</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>-18.48080268859274</v>
+      </c>
+      <c r="B300" t="n">
+        <v>18.48104296854592</v>
+      </c>
+      <c r="C300" t="n">
+        <v>13.6312422629426</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>-19.18664871597658</v>
+      </c>
+      <c r="B301" t="n">
+        <v>19.18677948442848</v>
+      </c>
+      <c r="C301" t="n">
+        <v>13.57027214094522</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>-19.89249474336043</v>
+      </c>
+      <c r="B302" t="n">
+        <v>19.89251600031105</v>
+      </c>
+      <c r="C302" t="n">
+        <v>13.50930201894784</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>9.737026954023047</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-9.73661255995988</v>
+      </c>
+      <c r="C303" t="n">
+        <v>16.19020303165166</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>9.031357659852233</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-9.030952990857404</v>
+      </c>
+      <c r="C304" t="n">
+        <v>16.12636401694614</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>8.325688365681419</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-8.325293421754928</v>
+      </c>
+      <c r="C305" t="n">
+        <v>16.06252500224062</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>7.620019071510605</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-7.619633852652451</v>
+      </c>
+      <c r="C306" t="n">
+        <v>15.9986859875351</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>6.91434977733979</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-6.913974283549974</v>
+      </c>
+      <c r="C307" t="n">
+        <v>15.93484697282958</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>6.208680483168976</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-6.208314714447497</v>
+      </c>
+      <c r="C308" t="n">
+        <v>15.87100795812405</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>5.503011188998162</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-5.50265514534502</v>
+      </c>
+      <c r="C309" t="n">
+        <v>15.80716894341853</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>4.797341894827349</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-4.796995576242543</v>
+      </c>
+      <c r="C310" t="n">
+        <v>15.74332992871301</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>4.091672600656535</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-4.091336007140066</v>
+      </c>
+      <c r="C311" t="n">
+        <v>15.67949091400749</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3.386003306485721</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-3.385676438037589</v>
+      </c>
+      <c r="C312" t="n">
+        <v>15.61565189930197</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>2.680334012314908</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-2.680016868935112</v>
+      </c>
+      <c r="C313" t="n">
+        <v>15.55181288459644</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1.974664718144094</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-1.974357299832636</v>
+      </c>
+      <c r="C314" t="n">
+        <v>15.48797386989092</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1.26899542397328</v>
+      </c>
+      <c r="B315" t="n">
+        <v>-1.268697730730159</v>
+      </c>
+      <c r="C315" t="n">
+        <v>15.4241348551854</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.5633261298024662</v>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.5630381616276815</v>
+      </c>
+      <c r="C316" t="n">
+        <v>15.36029584047988</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>-0.1423431643683476</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.1426214074747956</v>
+      </c>
+      <c r="C317" t="n">
+        <v>15.29645682577435</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>-0.8480124585391613</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.8482809765772725</v>
+      </c>
+      <c r="C318" t="n">
+        <v>15.23261781106883</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>-1.553681752709975</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1.553940545679749</v>
+      </c>
+      <c r="C319" t="n">
+        <v>15.16877879636331</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>-2.259351046880789</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2.259600114782226</v>
+      </c>
+      <c r="C320" t="n">
+        <v>15.10493978165779</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>-2.965020341051603</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2.965259683884703</v>
+      </c>
+      <c r="C321" t="n">
+        <v>15.04110076695226</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>-3.670689635222416</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3.67091925298718</v>
+      </c>
+      <c r="C322" t="n">
+        <v>14.97726175224674</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>-4.37635892939323</v>
+      </c>
+      <c r="B323" t="n">
+        <v>4.376578822089657</v>
+      </c>
+      <c r="C323" t="n">
+        <v>14.91342273754122</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>-5.082028223564043</v>
+      </c>
+      <c r="B324" t="n">
+        <v>5.082238391192134</v>
+      </c>
+      <c r="C324" t="n">
+        <v>14.8495837228357</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>-5.787697517734857</v>
+      </c>
+      <c r="B325" t="n">
+        <v>5.787897960294611</v>
+      </c>
+      <c r="C325" t="n">
+        <v>14.78574470813017</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>-6.493366811905672</v>
+      </c>
+      <c r="B326" t="n">
+        <v>6.493557529397088</v>
+      </c>
+      <c r="C326" t="n">
+        <v>14.72190569342465</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>-7.199036106076485</v>
+      </c>
+      <c r="B327" t="n">
+        <v>7.199217098499565</v>
+      </c>
+      <c r="C327" t="n">
+        <v>14.65806667871913</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>-7.904705400247298</v>
+      </c>
+      <c r="B328" t="n">
+        <v>7.904876667602042</v>
+      </c>
+      <c r="C328" t="n">
+        <v>14.59422766401361</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>-8.610374694418113</v>
+      </c>
+      <c r="B329" t="n">
+        <v>8.610536236704519</v>
+      </c>
+      <c r="C329" t="n">
+        <v>14.53038864930808</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>-9.316043988588927</v>
+      </c>
+      <c r="B330" t="n">
+        <v>9.316195805806995</v>
+      </c>
+      <c r="C330" t="n">
+        <v>14.46654963460256</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>-10.02171328275974</v>
+      </c>
+      <c r="B331" t="n">
+        <v>10.02185537490947</v>
+      </c>
+      <c r="C331" t="n">
+        <v>14.40271061989704</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>-10.72738257693056</v>
+      </c>
+      <c r="B332" t="n">
+        <v>10.72751494401195</v>
+      </c>
+      <c r="C332" t="n">
+        <v>14.33887160519151</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>-11.43305187110137</v>
+      </c>
+      <c r="B333" t="n">
+        <v>11.43317451311443</v>
+      </c>
+      <c r="C333" t="n">
+        <v>14.27503259048599</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>-12.13872116527218</v>
+      </c>
+      <c r="B334" t="n">
+        <v>12.13883408221691</v>
+      </c>
+      <c r="C334" t="n">
+        <v>14.21119357578047</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>-12.844390459443</v>
+      </c>
+      <c r="B335" t="n">
+        <v>12.84449365131938</v>
+      </c>
+      <c r="C335" t="n">
+        <v>14.14735456107494</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>-13.55005975361381</v>
+      </c>
+      <c r="B336" t="n">
+        <v>13.55015322042186</v>
+      </c>
+      <c r="C336" t="n">
+        <v>14.08351554636942</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>-14.25572904778463</v>
+      </c>
+      <c r="B337" t="n">
+        <v>14.25581278952434</v>
+      </c>
+      <c r="C337" t="n">
+        <v>14.0196765316639</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>-14.96139834195544</v>
+      </c>
+      <c r="B338" t="n">
+        <v>14.96147235862681</v>
+      </c>
+      <c r="C338" t="n">
+        <v>13.95583751695838</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>-15.66706763612626</v>
+      </c>
+      <c r="B339" t="n">
+        <v>15.66713192772929</v>
+      </c>
+      <c r="C339" t="n">
+        <v>13.89199850225285</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>-16.37273693029707</v>
+      </c>
+      <c r="B340" t="n">
+        <v>16.37279149683177</v>
+      </c>
+      <c r="C340" t="n">
+        <v>13.82815948754733</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>-17.07840622446788</v>
+      </c>
+      <c r="B341" t="n">
+        <v>17.07845106593425</v>
+      </c>
+      <c r="C341" t="n">
+        <v>13.76432047284181</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>-17.7840755186387</v>
+      </c>
+      <c r="B342" t="n">
+        <v>17.78411063503672</v>
+      </c>
+      <c r="C342" t="n">
+        <v>13.70048145813628</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>-18.48974481280951</v>
+      </c>
+      <c r="B343" t="n">
+        <v>18.4897702041392</v>
+      </c>
+      <c r="C343" t="n">
+        <v>13.63664244343076</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>-19.19541410698032</v>
+      </c>
+      <c r="B344" t="n">
+        <v>19.19542977324168</v>
+      </c>
+      <c r="C344" t="n">
+        <v>13.57280342872524</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>-19.90108340115114</v>
+      </c>
+      <c r="B345" t="n">
+        <v>19.90108934234415</v>
+      </c>
+      <c r="C345" t="n">
+        <v>13.50896441401972</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B346" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C346" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B347" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C347" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B348" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C348" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B349" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C349" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B350" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C350" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B351" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C351" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B352" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C352" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B353" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C353" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>-11.93942697179205</v>
+      </c>
+      <c r="B354" t="n">
+        <v>19.77394265922324</v>
+      </c>
+      <c r="C354" t="n">
+        <v>14.23067654459653</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B355" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C355" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B356" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C356" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B357" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C357" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B358" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C358" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B359" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C359" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B360" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C360" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B361" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C361" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B362" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C362" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B363" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C363" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B364" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C364" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B365" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C365" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B366" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C366" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B367" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C367" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B368" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C368" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B369" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C369" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B370" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C370" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B371" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C371" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B372" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C372" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B373" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C373" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B374" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C374" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B375" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C375" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B376" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C376" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B377" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C377" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B378" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C378" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>-8.95284136023473</v>
+      </c>
+      <c r="B379" t="n">
+        <v>19.69018372346124</v>
+      </c>
+      <c r="C379" t="n">
+        <v>14.50139932812027</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>-11.93942697179205</v>
+      </c>
+      <c r="B380" t="n">
+        <v>19.77394265922324</v>
+      </c>
+      <c r="C380" t="n">
+        <v>14.23067654459653</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B381" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C381" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B382" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C382" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B383" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C383" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B384" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C384" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B385" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C385" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B386" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C386" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B387" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C387" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B388" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C388" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>-11.93942697179205</v>
+      </c>
+      <c r="B389" t="n">
+        <v>19.77394265922324</v>
+      </c>
+      <c r="C389" t="n">
+        <v>14.23067654459653</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B390" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C390" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B391" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C391" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B392" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C392" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B393" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C393" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B394" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C394" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B395" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C395" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B396" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C396" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B397" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C397" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>-11.93942697179205</v>
+      </c>
+      <c r="B398" t="n">
+        <v>19.77394265922324</v>
+      </c>
+      <c r="C398" t="n">
+        <v>14.23067654459653</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B399" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C399" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B400" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C400" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B401" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C401" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B402" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C402" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B403" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C403" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B404" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C404" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B405" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C405" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B406" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C406" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B407" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C407" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B408" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C408" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B409" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C409" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B410" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C410" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B411" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C411" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B412" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C412" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B413" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C413" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B414" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C414" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>11.95325792066647</v>
+      </c>
+      <c r="B415" t="n">
+        <v>19.10387117312724</v>
+      </c>
+      <c r="C415" t="n">
+        <v>16.39645881278642</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>-2.979670137120102</v>
+      </c>
+      <c r="B416" t="n">
+        <v>19.52266585193724</v>
+      </c>
+      <c r="C416" t="n">
+        <v>15.04284489516774</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>-11.93942697179205</v>
+      </c>
+      <c r="B417" t="n">
+        <v>19.77394265922324</v>
+      </c>
+      <c r="C417" t="n">
+        <v>14.23067654459653</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B418" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C418" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B419" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C419" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B420" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C420" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B421" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C421" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B422" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C422" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B423" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C423" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B424" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C424" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B425" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C425" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B426" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C426" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B427" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C427" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B428" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C428" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B429" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C429" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B430" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C430" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B431" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C431" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B432" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C432" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B433" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C433" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>-2.979670137120102</v>
+      </c>
+      <c r="B434" t="n">
+        <v>19.52266585193724</v>
+      </c>
+      <c r="C434" t="n">
+        <v>15.04284489516774</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>-11.93942697179205</v>
+      </c>
+      <c r="B435" t="n">
+        <v>19.77394265922324</v>
+      </c>
+      <c r="C435" t="n">
+        <v>14.23067654459653</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B436" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C436" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B437" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C437" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B438" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C438" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B439" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C439" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B440" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C440" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B441" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C441" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B442" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C442" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B443" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C443" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>-11.93942697179205</v>
+      </c>
+      <c r="B444" t="n">
+        <v>19.77394265922324</v>
+      </c>
+      <c r="C444" t="n">
+        <v>14.23067654459653</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B445" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C445" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B446" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C446" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B447" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C447" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B448" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C448" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B449" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C449" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B450" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C450" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B451" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C451" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B452" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C452" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B453" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C453" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B454" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C454" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B455" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C455" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B456" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C456" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B457" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C457" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B458" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C458" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B459" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C459" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B460" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C460" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B461" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C461" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B462" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C462" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B463" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C463" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B464" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C464" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B465" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C465" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B466" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C466" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B467" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C467" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B468" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C468" t="n">
+        <v>13.50874912186657</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>-11.93942697179205</v>
+      </c>
+      <c r="B469" t="n">
+        <v>19.77394265922324</v>
+      </c>
+      <c r="C469" t="n">
+        <v>14.23067654459653</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>-12.93495550897782</v>
+      </c>
+      <c r="B470" t="n">
+        <v>19.80186230447724</v>
+      </c>
+      <c r="C470" t="n">
+        <v>14.14043561675529</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>-13.93048404616359</v>
+      </c>
+      <c r="B471" t="n">
+        <v>19.82978194973125</v>
+      </c>
+      <c r="C471" t="n">
+        <v>14.05019468891404</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>-14.92601258334936</v>
+      </c>
+      <c r="B472" t="n">
+        <v>19.85770159498524</v>
+      </c>
+      <c r="C472" t="n">
+        <v>13.9599537610728</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>-15.92154112053513</v>
+      </c>
+      <c r="B473" t="n">
+        <v>19.88562124023925</v>
+      </c>
+      <c r="C473" t="n">
+        <v>13.86971283323155</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>-16.9170696577209</v>
+      </c>
+      <c r="B474" t="n">
+        <v>19.91354088549324</v>
+      </c>
+      <c r="C474" t="n">
+        <v>13.77947190539031</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>-17.91259819490667</v>
+      </c>
+      <c r="B475" t="n">
+        <v>19.94146053074725</v>
+      </c>
+      <c r="C475" t="n">
+        <v>13.68923097754906</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>-18.90812673209244</v>
+      </c>
+      <c r="B476" t="n">
+        <v>19.96938017600124</v>
+      </c>
+      <c r="C476" t="n">
+        <v>13.59899004970782</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>-19.90365526927821</v>
+      </c>
+      <c r="B477" t="n">
+        <v>19.99729982125525</v>
+      </c>
+      <c r="C477" t="n">
+        <v>13.50874912186657</v>
       </c>
     </row>
   </sheetData>

--- a/src/path_planning/test_scripts/Testing.xlsx
+++ b/src/path_planning/test_scripts/Testing.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2164"/>
+  <dimension ref="A1:C2338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -24224,6 +24224,1920 @@
         <v>13.50936816150611</v>
       </c>
     </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>9.747220500373512</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>9.748954268583869</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>16.04746703319188</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>9.041427085808614</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>9.043119691663314</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>15.98702527626669</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>8.335633671243716</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>8.337285114742759</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>15.9265835193415</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>7.629840256678818</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>7.631450537822205</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>15.8661417624163</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>6.924046842113921</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>6.92561596090165</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>15.80570000549111</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>6.218253427549023</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>6.219781383981096</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>15.74525824856592</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>5.512460012984125</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>5.513946807060542</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>15.68481649164073</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>4.806666598419227</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>4.808112230139987</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>15.62437473471554</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>4.100873183854329</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>4.102277653219433</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>15.56393297779034</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>3.395079769289431</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>3.396443076298878</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>15.50349122086515</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>2.689286354724533</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>2.690608499378324</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>15.44304946393996</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>1.983492940159636</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>1.984773922457769</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>15.38260770701477</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>1.277699525594738</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>1.278939345537215</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>15.32216595008958</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>0.5719061110298396</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>0.5731047686166604</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>15.26172419316438</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>-0.1338873035350584</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>-0.132729808303894</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>15.20128243623919</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>-0.8396807180999564</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>-0.8385643852244485</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>15.140840679314</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>-1.545474132664854</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>-1.544398962145003</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>15.08039892238881</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>-2.251267547229752</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>-2.250233539065557</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>15.01995716546362</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>-2.95706096179465</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>-2.956068115986112</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>14.95951540853843</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>-3.662854376359548</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>-3.661902692906666</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>14.89907365161323</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>-4.368647790924446</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>-4.36773726982722</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>14.83863189468804</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>-5.074441205489344</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>-5.073571846747774</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>14.77819013776285</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>-5.780234620054242</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>-5.779406423668329</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>14.71774838083766</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>-6.48602803461914</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>-6.485241000588883</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>14.65730662391247</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>-7.191821449184038</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>-7.191075577509437</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>14.59686486698728</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>-7.897614863748935</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>-7.896910154429992</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>14.53642311006208</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>-8.603408278313834</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>-8.602744731350546</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>14.47598135313689</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>-9.309201692878732</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>-9.308579308271101</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>14.4155395962117</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>-10.01499510744363</v>
+      </c>
+      <c r="B2193" t="n">
+        <v>-10.01441388519166</v>
+      </c>
+      <c r="C2193" t="n">
+        <v>14.35509783928651</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>-10.72078852200853</v>
+      </c>
+      <c r="B2194" t="n">
+        <v>-10.72024846211221</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>14.29465608236132</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>-11.42658193657343</v>
+      </c>
+      <c r="B2195" t="n">
+        <v>-11.42608303903277</v>
+      </c>
+      <c r="C2195" t="n">
+        <v>14.23421432543613</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>-12.13237535113832</v>
+      </c>
+      <c r="B2196" t="n">
+        <v>-12.13191761595332</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>14.17377256851094</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>-12.83816876570322</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>-12.83775219287388</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>14.11333081158575</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>-13.54396218026812</v>
+      </c>
+      <c r="B2198" t="n">
+        <v>-13.54358676979443</v>
+      </c>
+      <c r="C2198" t="n">
+        <v>14.05288905466056</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>-14.24975559483302</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>-14.24942134671499</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>13.99244729773537</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>-14.95554900939791</v>
+      </c>
+      <c r="B2200" t="n">
+        <v>-14.95525592363554</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>13.93200554081018</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>-15.66134242396281</v>
+      </c>
+      <c r="B2201" t="n">
+        <v>-15.6610905005561</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>13.87156378388499</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>-16.36713583852771</v>
+      </c>
+      <c r="B2202" t="n">
+        <v>-16.36692507747665</v>
+      </c>
+      <c r="C2202" t="n">
+        <v>13.81112202695979</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>-17.07292925309261</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>-17.07275965439721</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>13.7506802700346</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>-17.77872266765751</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>-17.77859423131776</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>13.69023851310941</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>-18.48451608222241</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>-18.48442880823832</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>13.62979675618422</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>-19.1903094967873</v>
+      </c>
+      <c r="B2206" t="n">
+        <v>-19.19026338515887</v>
+      </c>
+      <c r="C2206" t="n">
+        <v>13.56935499925903</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>-19.8961029113522</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>-19.89609796207942</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>13.50891324233384</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>9.747220500373512</v>
+      </c>
+      <c r="B2208" t="n">
+        <v>9.748954268583869</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>16.04746703319188</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>9.041427085808614</v>
+      </c>
+      <c r="B2209" t="n">
+        <v>9.043119691663314</v>
+      </c>
+      <c r="C2209" t="n">
+        <v>15.98702527626669</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>8.335633671243716</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>8.337285114742759</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>15.9265835193415</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>7.629840256678818</v>
+      </c>
+      <c r="B2211" t="n">
+        <v>7.631450537822205</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>15.8661417624163</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>6.924046842113921</v>
+      </c>
+      <c r="B2212" t="n">
+        <v>6.92561596090165</v>
+      </c>
+      <c r="C2212" t="n">
+        <v>15.80570000549111</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>6.218253427549023</v>
+      </c>
+      <c r="B2213" t="n">
+        <v>6.219781383981096</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>15.74525824856592</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>5.512460012984125</v>
+      </c>
+      <c r="B2214" t="n">
+        <v>5.513946807060542</v>
+      </c>
+      <c r="C2214" t="n">
+        <v>15.68481649164073</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>4.806666598419227</v>
+      </c>
+      <c r="B2215" t="n">
+        <v>4.808112230139987</v>
+      </c>
+      <c r="C2215" t="n">
+        <v>15.62437473471554</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>4.100873183854329</v>
+      </c>
+      <c r="B2216" t="n">
+        <v>4.102277653219433</v>
+      </c>
+      <c r="C2216" t="n">
+        <v>15.56393297779034</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>3.395079769289431</v>
+      </c>
+      <c r="B2217" t="n">
+        <v>3.396443076298878</v>
+      </c>
+      <c r="C2217" t="n">
+        <v>15.50349122086515</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>2.689286354724533</v>
+      </c>
+      <c r="B2218" t="n">
+        <v>2.690608499378324</v>
+      </c>
+      <c r="C2218" t="n">
+        <v>15.44304946393996</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>1.983492940159636</v>
+      </c>
+      <c r="B2219" t="n">
+        <v>1.984773922457769</v>
+      </c>
+      <c r="C2219" t="n">
+        <v>15.38260770701477</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>1.277699525594738</v>
+      </c>
+      <c r="B2220" t="n">
+        <v>1.278939345537215</v>
+      </c>
+      <c r="C2220" t="n">
+        <v>15.32216595008958</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>0.5719061110298396</v>
+      </c>
+      <c r="B2221" t="n">
+        <v>0.5731047686166604</v>
+      </c>
+      <c r="C2221" t="n">
+        <v>15.26172419316438</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>-0.1338873035350584</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>-0.132729808303894</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>15.20128243623919</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>-0.8396807180999564</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>-0.8385643852244485</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>15.140840679314</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>-1.545474132664854</v>
+      </c>
+      <c r="B2224" t="n">
+        <v>-1.544398962145003</v>
+      </c>
+      <c r="C2224" t="n">
+        <v>15.08039892238881</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>-2.251267547229752</v>
+      </c>
+      <c r="B2225" t="n">
+        <v>-2.250233539065557</v>
+      </c>
+      <c r="C2225" t="n">
+        <v>15.01995716546362</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>-2.95706096179465</v>
+      </c>
+      <c r="B2226" t="n">
+        <v>-2.956068115986112</v>
+      </c>
+      <c r="C2226" t="n">
+        <v>14.95951540853843</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>-3.662854376359548</v>
+      </c>
+      <c r="B2227" t="n">
+        <v>-3.661902692906666</v>
+      </c>
+      <c r="C2227" t="n">
+        <v>14.89907365161323</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>-4.368647790924446</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>-4.36773726982722</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>14.83863189468804</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>-5.074441205489344</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>-5.073571846747774</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>14.77819013776285</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>-5.780234620054242</v>
+      </c>
+      <c r="B2230" t="n">
+        <v>-5.779406423668329</v>
+      </c>
+      <c r="C2230" t="n">
+        <v>14.71774838083766</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>-6.48602803461914</v>
+      </c>
+      <c r="B2231" t="n">
+        <v>-6.485241000588883</v>
+      </c>
+      <c r="C2231" t="n">
+        <v>14.65730662391247</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>-7.191821449184038</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>-7.191075577509437</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>14.59686486698728</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>-7.897614863748935</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>-7.896910154429992</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>14.53642311006208</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>-8.603408278313834</v>
+      </c>
+      <c r="B2234" t="n">
+        <v>-8.602744731350546</v>
+      </c>
+      <c r="C2234" t="n">
+        <v>14.47598135313689</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>-9.309201692878732</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>-9.308579308271101</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>14.4155395962117</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>-10.01499510744363</v>
+      </c>
+      <c r="B2236" t="n">
+        <v>-10.01441388519166</v>
+      </c>
+      <c r="C2236" t="n">
+        <v>14.35509783928651</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>-10.72078852200853</v>
+      </c>
+      <c r="B2237" t="n">
+        <v>-10.72024846211221</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>14.29465608236132</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>-11.42658193657343</v>
+      </c>
+      <c r="B2238" t="n">
+        <v>-11.42608303903277</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>14.23421432543613</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>-12.13237535113832</v>
+      </c>
+      <c r="B2239" t="n">
+        <v>-12.13191761595332</v>
+      </c>
+      <c r="C2239" t="n">
+        <v>14.17377256851094</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>-12.83816876570322</v>
+      </c>
+      <c r="B2240" t="n">
+        <v>-12.83775219287388</v>
+      </c>
+      <c r="C2240" t="n">
+        <v>14.11333081158575</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>-13.54396218026812</v>
+      </c>
+      <c r="B2241" t="n">
+        <v>-13.54358676979443</v>
+      </c>
+      <c r="C2241" t="n">
+        <v>14.05288905466056</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>-14.24975559483302</v>
+      </c>
+      <c r="B2242" t="n">
+        <v>-14.24942134671499</v>
+      </c>
+      <c r="C2242" t="n">
+        <v>13.99244729773537</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>-14.95554900939791</v>
+      </c>
+      <c r="B2243" t="n">
+        <v>-14.95525592363554</v>
+      </c>
+      <c r="C2243" t="n">
+        <v>13.93200554081018</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>-15.66134242396281</v>
+      </c>
+      <c r="B2244" t="n">
+        <v>-15.6610905005561</v>
+      </c>
+      <c r="C2244" t="n">
+        <v>13.87156378388499</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>-16.36713583852771</v>
+      </c>
+      <c r="B2245" t="n">
+        <v>-16.36692507747665</v>
+      </c>
+      <c r="C2245" t="n">
+        <v>13.81112202695979</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>-17.07292925309261</v>
+      </c>
+      <c r="B2246" t="n">
+        <v>-17.07275965439721</v>
+      </c>
+      <c r="C2246" t="n">
+        <v>13.7506802700346</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>-17.77872266765751</v>
+      </c>
+      <c r="B2247" t="n">
+        <v>-17.77859423131776</v>
+      </c>
+      <c r="C2247" t="n">
+        <v>13.69023851310941</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>-18.48451608222241</v>
+      </c>
+      <c r="B2248" t="n">
+        <v>-18.48442880823832</v>
+      </c>
+      <c r="C2248" t="n">
+        <v>13.62979675618422</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>-19.1903094967873</v>
+      </c>
+      <c r="B2249" t="n">
+        <v>-19.19026338515887</v>
+      </c>
+      <c r="C2249" t="n">
+        <v>13.56935499925903</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>-19.8961029113522</v>
+      </c>
+      <c r="B2250" t="n">
+        <v>-19.89609796207942</v>
+      </c>
+      <c r="C2250" t="n">
+        <v>13.50891324233384</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>12.5703941586331</v>
+      </c>
+      <c r="B2251" t="n">
+        <v>12.57229257626609</v>
+      </c>
+      <c r="C2251" t="n">
+        <v>16.28923406089264</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>10.45301391493841</v>
+      </c>
+      <c r="B2252" t="n">
+        <v>10.45478884550442</v>
+      </c>
+      <c r="C2252" t="n">
+        <v>16.10790879011707</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>9.747220500373512</v>
+      </c>
+      <c r="B2253" t="n">
+        <v>9.748954268583869</v>
+      </c>
+      <c r="C2253" t="n">
+        <v>16.04746703319188</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>9.041427085808614</v>
+      </c>
+      <c r="B2254" t="n">
+        <v>9.043119691663314</v>
+      </c>
+      <c r="C2254" t="n">
+        <v>15.98702527626669</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>8.335633671243716</v>
+      </c>
+      <c r="B2255" t="n">
+        <v>8.337285114742759</v>
+      </c>
+      <c r="C2255" t="n">
+        <v>15.9265835193415</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>7.629840256678818</v>
+      </c>
+      <c r="B2256" t="n">
+        <v>7.631450537822205</v>
+      </c>
+      <c r="C2256" t="n">
+        <v>15.8661417624163</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>6.924046842113921</v>
+      </c>
+      <c r="B2257" t="n">
+        <v>6.92561596090165</v>
+      </c>
+      <c r="C2257" t="n">
+        <v>15.80570000549111</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>6.218253427549023</v>
+      </c>
+      <c r="B2258" t="n">
+        <v>6.219781383981096</v>
+      </c>
+      <c r="C2258" t="n">
+        <v>15.74525824856592</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>5.512460012984125</v>
+      </c>
+      <c r="B2259" t="n">
+        <v>5.513946807060542</v>
+      </c>
+      <c r="C2259" t="n">
+        <v>15.68481649164073</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>4.806666598419227</v>
+      </c>
+      <c r="B2260" t="n">
+        <v>4.808112230139987</v>
+      </c>
+      <c r="C2260" t="n">
+        <v>15.62437473471554</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>4.100873183854329</v>
+      </c>
+      <c r="B2261" t="n">
+        <v>4.102277653219433</v>
+      </c>
+      <c r="C2261" t="n">
+        <v>15.56393297779034</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>3.395079769289431</v>
+      </c>
+      <c r="B2262" t="n">
+        <v>3.396443076298878</v>
+      </c>
+      <c r="C2262" t="n">
+        <v>15.50349122086515</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>2.689286354724533</v>
+      </c>
+      <c r="B2263" t="n">
+        <v>2.690608499378324</v>
+      </c>
+      <c r="C2263" t="n">
+        <v>15.44304946393996</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1.983492940159636</v>
+      </c>
+      <c r="B2264" t="n">
+        <v>1.984773922457769</v>
+      </c>
+      <c r="C2264" t="n">
+        <v>15.38260770701477</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1.277699525594738</v>
+      </c>
+      <c r="B2265" t="n">
+        <v>1.278939345537215</v>
+      </c>
+      <c r="C2265" t="n">
+        <v>15.32216595008958</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>0.5719061110298396</v>
+      </c>
+      <c r="B2266" t="n">
+        <v>0.5731047686166604</v>
+      </c>
+      <c r="C2266" t="n">
+        <v>15.26172419316438</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>-0.1338873035350584</v>
+      </c>
+      <c r="B2267" t="n">
+        <v>-0.132729808303894</v>
+      </c>
+      <c r="C2267" t="n">
+        <v>15.20128243623919</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>-0.8396807180999564</v>
+      </c>
+      <c r="B2268" t="n">
+        <v>-0.8385643852244485</v>
+      </c>
+      <c r="C2268" t="n">
+        <v>15.140840679314</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>-1.545474132664854</v>
+      </c>
+      <c r="B2269" t="n">
+        <v>-1.544398962145003</v>
+      </c>
+      <c r="C2269" t="n">
+        <v>15.08039892238881</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>-2.251267547229752</v>
+      </c>
+      <c r="B2270" t="n">
+        <v>-2.250233539065557</v>
+      </c>
+      <c r="C2270" t="n">
+        <v>15.01995716546362</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>-2.95706096179465</v>
+      </c>
+      <c r="B2271" t="n">
+        <v>-2.956068115986112</v>
+      </c>
+      <c r="C2271" t="n">
+        <v>14.95951540853843</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="n">
+        <v>-3.662854376359548</v>
+      </c>
+      <c r="B2272" t="n">
+        <v>-3.661902692906666</v>
+      </c>
+      <c r="C2272" t="n">
+        <v>14.89907365161323</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="n">
+        <v>-4.368647790924446</v>
+      </c>
+      <c r="B2273" t="n">
+        <v>-4.36773726982722</v>
+      </c>
+      <c r="C2273" t="n">
+        <v>14.83863189468804</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>-5.074441205489344</v>
+      </c>
+      <c r="B2274" t="n">
+        <v>-5.073571846747774</v>
+      </c>
+      <c r="C2274" t="n">
+        <v>14.77819013776285</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>-5.780234620054242</v>
+      </c>
+      <c r="B2275" t="n">
+        <v>-5.779406423668329</v>
+      </c>
+      <c r="C2275" t="n">
+        <v>14.71774838083766</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>-6.48602803461914</v>
+      </c>
+      <c r="B2276" t="n">
+        <v>-6.485241000588883</v>
+      </c>
+      <c r="C2276" t="n">
+        <v>14.65730662391247</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>-7.191821449184038</v>
+      </c>
+      <c r="B2277" t="n">
+        <v>-7.191075577509437</v>
+      </c>
+      <c r="C2277" t="n">
+        <v>14.59686486698728</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>-7.897614863748935</v>
+      </c>
+      <c r="B2278" t="n">
+        <v>-7.896910154429992</v>
+      </c>
+      <c r="C2278" t="n">
+        <v>14.53642311006208</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>-8.603408278313834</v>
+      </c>
+      <c r="B2279" t="n">
+        <v>-8.602744731350546</v>
+      </c>
+      <c r="C2279" t="n">
+        <v>14.47598135313689</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>-9.309201692878732</v>
+      </c>
+      <c r="B2280" t="n">
+        <v>-9.308579308271101</v>
+      </c>
+      <c r="C2280" t="n">
+        <v>14.4155395962117</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>-10.01499510744363</v>
+      </c>
+      <c r="B2281" t="n">
+        <v>-10.01441388519166</v>
+      </c>
+      <c r="C2281" t="n">
+        <v>14.35509783928651</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>-10.72078852200853</v>
+      </c>
+      <c r="B2282" t="n">
+        <v>-10.72024846211221</v>
+      </c>
+      <c r="C2282" t="n">
+        <v>14.29465608236132</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>-11.42658193657343</v>
+      </c>
+      <c r="B2283" t="n">
+        <v>-11.42608303903277</v>
+      </c>
+      <c r="C2283" t="n">
+        <v>14.23421432543613</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>-12.13237535113832</v>
+      </c>
+      <c r="B2284" t="n">
+        <v>-12.13191761595332</v>
+      </c>
+      <c r="C2284" t="n">
+        <v>14.17377256851094</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>-12.83816876570322</v>
+      </c>
+      <c r="B2285" t="n">
+        <v>-12.83775219287388</v>
+      </c>
+      <c r="C2285" t="n">
+        <v>14.11333081158575</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>-13.54396218026812</v>
+      </c>
+      <c r="B2286" t="n">
+        <v>-13.54358676979443</v>
+      </c>
+      <c r="C2286" t="n">
+        <v>14.05288905466056</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>-14.24975559483302</v>
+      </c>
+      <c r="B2287" t="n">
+        <v>-14.24942134671499</v>
+      </c>
+      <c r="C2287" t="n">
+        <v>13.99244729773537</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>-14.95554900939791</v>
+      </c>
+      <c r="B2288" t="n">
+        <v>-14.95525592363554</v>
+      </c>
+      <c r="C2288" t="n">
+        <v>13.93200554081018</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>-15.66134242396281</v>
+      </c>
+      <c r="B2289" t="n">
+        <v>-15.6610905005561</v>
+      </c>
+      <c r="C2289" t="n">
+        <v>13.87156378388499</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>-16.36713583852771</v>
+      </c>
+      <c r="B2290" t="n">
+        <v>-16.36692507747665</v>
+      </c>
+      <c r="C2290" t="n">
+        <v>13.81112202695979</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>-17.07292925309261</v>
+      </c>
+      <c r="B2291" t="n">
+        <v>-17.07275965439721</v>
+      </c>
+      <c r="C2291" t="n">
+        <v>13.7506802700346</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>-17.77872266765751</v>
+      </c>
+      <c r="B2292" t="n">
+        <v>-17.77859423131776</v>
+      </c>
+      <c r="C2292" t="n">
+        <v>13.69023851310941</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>-18.48451608222241</v>
+      </c>
+      <c r="B2293" t="n">
+        <v>-18.48442880823832</v>
+      </c>
+      <c r="C2293" t="n">
+        <v>13.62979675618422</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>-19.1903094967873</v>
+      </c>
+      <c r="B2294" t="n">
+        <v>-19.19026338515887</v>
+      </c>
+      <c r="C2294" t="n">
+        <v>13.56935499925903</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>-19.8961029113522</v>
+      </c>
+      <c r="B2295" t="n">
+        <v>-19.89609796207942</v>
+      </c>
+      <c r="C2295" t="n">
+        <v>13.50891324233384</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>9.747220500373512</v>
+      </c>
+      <c r="B2296" t="n">
+        <v>9.748954268583869</v>
+      </c>
+      <c r="C2296" t="n">
+        <v>16.04746703319188</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>9.041427085808614</v>
+      </c>
+      <c r="B2297" t="n">
+        <v>9.043119691663314</v>
+      </c>
+      <c r="C2297" t="n">
+        <v>15.98702527626669</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>8.335633671243716</v>
+      </c>
+      <c r="B2298" t="n">
+        <v>8.337285114742759</v>
+      </c>
+      <c r="C2298" t="n">
+        <v>15.9265835193415</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>7.629840256678818</v>
+      </c>
+      <c r="B2299" t="n">
+        <v>7.631450537822205</v>
+      </c>
+      <c r="C2299" t="n">
+        <v>15.8661417624163</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>6.924046842113921</v>
+      </c>
+      <c r="B2300" t="n">
+        <v>6.92561596090165</v>
+      </c>
+      <c r="C2300" t="n">
+        <v>15.80570000549111</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>6.218253427549023</v>
+      </c>
+      <c r="B2301" t="n">
+        <v>6.219781383981096</v>
+      </c>
+      <c r="C2301" t="n">
+        <v>15.74525824856592</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>5.512460012984125</v>
+      </c>
+      <c r="B2302" t="n">
+        <v>5.513946807060542</v>
+      </c>
+      <c r="C2302" t="n">
+        <v>15.68481649164073</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>4.806666598419227</v>
+      </c>
+      <c r="B2303" t="n">
+        <v>4.808112230139987</v>
+      </c>
+      <c r="C2303" t="n">
+        <v>15.62437473471554</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>4.100873183854329</v>
+      </c>
+      <c r="B2304" t="n">
+        <v>4.102277653219433</v>
+      </c>
+      <c r="C2304" t="n">
+        <v>15.56393297779034</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>3.395079769289431</v>
+      </c>
+      <c r="B2305" t="n">
+        <v>3.396443076298878</v>
+      </c>
+      <c r="C2305" t="n">
+        <v>15.50349122086515</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>2.689286354724533</v>
+      </c>
+      <c r="B2306" t="n">
+        <v>2.690608499378324</v>
+      </c>
+      <c r="C2306" t="n">
+        <v>15.44304946393996</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>1.983492940159636</v>
+      </c>
+      <c r="B2307" t="n">
+        <v>1.984773922457769</v>
+      </c>
+      <c r="C2307" t="n">
+        <v>15.38260770701477</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>1.277699525594738</v>
+      </c>
+      <c r="B2308" t="n">
+        <v>1.278939345537215</v>
+      </c>
+      <c r="C2308" t="n">
+        <v>15.32216595008958</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="n">
+        <v>0.5719061110298396</v>
+      </c>
+      <c r="B2309" t="n">
+        <v>0.5731047686166604</v>
+      </c>
+      <c r="C2309" t="n">
+        <v>15.26172419316438</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="n">
+        <v>-0.1338873035350584</v>
+      </c>
+      <c r="B2310" t="n">
+        <v>-0.132729808303894</v>
+      </c>
+      <c r="C2310" t="n">
+        <v>15.20128243623919</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="n">
+        <v>-0.8396807180999564</v>
+      </c>
+      <c r="B2311" t="n">
+        <v>-0.8385643852244485</v>
+      </c>
+      <c r="C2311" t="n">
+        <v>15.140840679314</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="n">
+        <v>-1.545474132664854</v>
+      </c>
+      <c r="B2312" t="n">
+        <v>-1.544398962145003</v>
+      </c>
+      <c r="C2312" t="n">
+        <v>15.08039892238881</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="n">
+        <v>-2.251267547229752</v>
+      </c>
+      <c r="B2313" t="n">
+        <v>-2.250233539065557</v>
+      </c>
+      <c r="C2313" t="n">
+        <v>15.01995716546362</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="n">
+        <v>-2.95706096179465</v>
+      </c>
+      <c r="B2314" t="n">
+        <v>-2.956068115986112</v>
+      </c>
+      <c r="C2314" t="n">
+        <v>14.95951540853843</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="n">
+        <v>-3.662854376359548</v>
+      </c>
+      <c r="B2315" t="n">
+        <v>-3.661902692906666</v>
+      </c>
+      <c r="C2315" t="n">
+        <v>14.89907365161323</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="n">
+        <v>-4.368647790924446</v>
+      </c>
+      <c r="B2316" t="n">
+        <v>-4.36773726982722</v>
+      </c>
+      <c r="C2316" t="n">
+        <v>14.83863189468804</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="n">
+        <v>-5.074441205489344</v>
+      </c>
+      <c r="B2317" t="n">
+        <v>-5.073571846747774</v>
+      </c>
+      <c r="C2317" t="n">
+        <v>14.77819013776285</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="n">
+        <v>-5.780234620054242</v>
+      </c>
+      <c r="B2318" t="n">
+        <v>-5.779406423668329</v>
+      </c>
+      <c r="C2318" t="n">
+        <v>14.71774838083766</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="n">
+        <v>-6.48602803461914</v>
+      </c>
+      <c r="B2319" t="n">
+        <v>-6.485241000588883</v>
+      </c>
+      <c r="C2319" t="n">
+        <v>14.65730662391247</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>-7.191821449184038</v>
+      </c>
+      <c r="B2320" t="n">
+        <v>-7.191075577509437</v>
+      </c>
+      <c r="C2320" t="n">
+        <v>14.59686486698728</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>-7.897614863748935</v>
+      </c>
+      <c r="B2321" t="n">
+        <v>-7.896910154429992</v>
+      </c>
+      <c r="C2321" t="n">
+        <v>14.53642311006208</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>-8.603408278313834</v>
+      </c>
+      <c r="B2322" t="n">
+        <v>-8.602744731350546</v>
+      </c>
+      <c r="C2322" t="n">
+        <v>14.47598135313689</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>-9.309201692878732</v>
+      </c>
+      <c r="B2323" t="n">
+        <v>-9.308579308271101</v>
+      </c>
+      <c r="C2323" t="n">
+        <v>14.4155395962117</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>-10.01499510744363</v>
+      </c>
+      <c r="B2324" t="n">
+        <v>-10.01441388519166</v>
+      </c>
+      <c r="C2324" t="n">
+        <v>14.35509783928651</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>-10.72078852200853</v>
+      </c>
+      <c r="B2325" t="n">
+        <v>-10.72024846211221</v>
+      </c>
+      <c r="C2325" t="n">
+        <v>14.29465608236132</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>-11.42658193657343</v>
+      </c>
+      <c r="B2326" t="n">
+        <v>-11.42608303903277</v>
+      </c>
+      <c r="C2326" t="n">
+        <v>14.23421432543613</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>-12.13237535113832</v>
+      </c>
+      <c r="B2327" t="n">
+        <v>-12.13191761595332</v>
+      </c>
+      <c r="C2327" t="n">
+        <v>14.17377256851094</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>-12.83816876570322</v>
+      </c>
+      <c r="B2328" t="n">
+        <v>-12.83775219287388</v>
+      </c>
+      <c r="C2328" t="n">
+        <v>14.11333081158575</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>-13.54396218026812</v>
+      </c>
+      <c r="B2329" t="n">
+        <v>-13.54358676979443</v>
+      </c>
+      <c r="C2329" t="n">
+        <v>14.05288905466056</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>-14.24975559483302</v>
+      </c>
+      <c r="B2330" t="n">
+        <v>-14.24942134671499</v>
+      </c>
+      <c r="C2330" t="n">
+        <v>13.99244729773537</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>-14.95554900939791</v>
+      </c>
+      <c r="B2331" t="n">
+        <v>-14.95525592363554</v>
+      </c>
+      <c r="C2331" t="n">
+        <v>13.93200554081018</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>-15.66134242396281</v>
+      </c>
+      <c r="B2332" t="n">
+        <v>-15.6610905005561</v>
+      </c>
+      <c r="C2332" t="n">
+        <v>13.87156378388499</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>-16.36713583852771</v>
+      </c>
+      <c r="B2333" t="n">
+        <v>-16.36692507747665</v>
+      </c>
+      <c r="C2333" t="n">
+        <v>13.81112202695979</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>-17.07292925309261</v>
+      </c>
+      <c r="B2334" t="n">
+        <v>-17.07275965439721</v>
+      </c>
+      <c r="C2334" t="n">
+        <v>13.7506802700346</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>-17.77872266765751</v>
+      </c>
+      <c r="B2335" t="n">
+        <v>-17.77859423131776</v>
+      </c>
+      <c r="C2335" t="n">
+        <v>13.69023851310941</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>-18.48451608222241</v>
+      </c>
+      <c r="B2336" t="n">
+        <v>-18.48442880823832</v>
+      </c>
+      <c r="C2336" t="n">
+        <v>13.62979675618422</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>-19.1903094967873</v>
+      </c>
+      <c r="B2337" t="n">
+        <v>-19.19026338515887</v>
+      </c>
+      <c r="C2337" t="n">
+        <v>13.56935499925903</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>-19.8961029113522</v>
+      </c>
+      <c r="B2338" t="n">
+        <v>-19.89609796207942</v>
+      </c>
+      <c r="C2338" t="n">
+        <v>13.50891324233384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/path_planning/test_scripts/Testing.xlsx
+++ b/src/path_planning/test_scripts/Testing.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2338"/>
+  <dimension ref="A1:C2381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -26138,6 +26138,479 @@
         <v>13.50891324233384</v>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>9.73745786833307</v>
+      </c>
+      <c r="B2339" t="n">
+        <v>9.737043825499235</v>
+      </c>
+      <c r="C2339" t="n">
+        <v>16.19082042100107</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>9.031789155793497</v>
+      </c>
+      <c r="B2340" t="n">
+        <v>9.031384911842718</v>
+      </c>
+      <c r="C2340" t="n">
+        <v>16.12696773335329</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>8.326120443253924</v>
+      </c>
+      <c r="B2341" t="n">
+        <v>8.325725998186201</v>
+      </c>
+      <c r="C2341" t="n">
+        <v>16.0631150457055</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>7.62045173071435</v>
+      </c>
+      <c r="B2342" t="n">
+        <v>7.620067084529683</v>
+      </c>
+      <c r="C2342" t="n">
+        <v>15.99926235805772</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>6.914783018174777</v>
+      </c>
+      <c r="B2343" t="n">
+        <v>6.914408170873166</v>
+      </c>
+      <c r="C2343" t="n">
+        <v>15.93540967040993</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>6.209114305635204</v>
+      </c>
+      <c r="B2344" t="n">
+        <v>6.208749257216649</v>
+      </c>
+      <c r="C2344" t="n">
+        <v>15.87155698276215</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>5.503445593095631</v>
+      </c>
+      <c r="B2345" t="n">
+        <v>5.503090343560132</v>
+      </c>
+      <c r="C2345" t="n">
+        <v>15.80770429511436</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>4.797776880556057</v>
+      </c>
+      <c r="B2346" t="n">
+        <v>4.797431429903615</v>
+      </c>
+      <c r="C2346" t="n">
+        <v>15.74385160746658</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>4.092108168016484</v>
+      </c>
+      <c r="B2347" t="n">
+        <v>4.091772516247099</v>
+      </c>
+      <c r="C2347" t="n">
+        <v>15.67999891981879</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>3.386439455476911</v>
+      </c>
+      <c r="B2348" t="n">
+        <v>3.386113602590582</v>
+      </c>
+      <c r="C2348" t="n">
+        <v>15.61614623217101</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>2.680770742937337</v>
+      </c>
+      <c r="B2349" t="n">
+        <v>2.680454688934065</v>
+      </c>
+      <c r="C2349" t="n">
+        <v>15.55229354452322</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1.975102030397764</v>
+      </c>
+      <c r="B2350" t="n">
+        <v>1.974795775277549</v>
+      </c>
+      <c r="C2350" t="n">
+        <v>15.48844085687544</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1.269433317858191</v>
+      </c>
+      <c r="B2351" t="n">
+        <v>1.269136861621032</v>
+      </c>
+      <c r="C2351" t="n">
+        <v>15.42458816922765</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>0.5637646053186174</v>
+      </c>
+      <c r="B2352" t="n">
+        <v>0.5634779479645151</v>
+      </c>
+      <c r="C2352" t="n">
+        <v>15.36073548157987</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>-0.1419041072209559</v>
+      </c>
+      <c r="B2353" t="n">
+        <v>-0.1421809656920016</v>
+      </c>
+      <c r="C2353" t="n">
+        <v>15.29688279393208</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>-0.8475728197605292</v>
+      </c>
+      <c r="B2354" t="n">
+        <v>-0.8478398793485182</v>
+      </c>
+      <c r="C2354" t="n">
+        <v>15.2330301062843</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>-1.553241532300103</v>
+      </c>
+      <c r="B2355" t="n">
+        <v>-1.553498793005035</v>
+      </c>
+      <c r="C2355" t="n">
+        <v>15.16917741863651</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>-2.258910244839676</v>
+      </c>
+      <c r="B2356" t="n">
+        <v>-2.259157706661552</v>
+      </c>
+      <c r="C2356" t="n">
+        <v>15.10532473098873</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>-2.964578957379249</v>
+      </c>
+      <c r="B2357" t="n">
+        <v>-2.964816620318068</v>
+      </c>
+      <c r="C2357" t="n">
+        <v>15.04147204334094</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>-3.670247669918822</v>
+      </c>
+      <c r="B2358" t="n">
+        <v>-3.670475533974585</v>
+      </c>
+      <c r="C2358" t="n">
+        <v>14.97761935569316</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>-4.375916382458396</v>
+      </c>
+      <c r="B2359" t="n">
+        <v>-4.376134447631102</v>
+      </c>
+      <c r="C2359" t="n">
+        <v>14.91376666804537</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>-5.081585094997969</v>
+      </c>
+      <c r="B2360" t="n">
+        <v>-5.081793361287619</v>
+      </c>
+      <c r="C2360" t="n">
+        <v>14.84991398039759</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>-5.787253807537542</v>
+      </c>
+      <c r="B2361" t="n">
+        <v>-5.787452274944135</v>
+      </c>
+      <c r="C2361" t="n">
+        <v>14.7860612927498</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>-6.492922520077116</v>
+      </c>
+      <c r="B2362" t="n">
+        <v>-6.493111188600652</v>
+      </c>
+      <c r="C2362" t="n">
+        <v>14.72220860510201</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>-7.198591232616689</v>
+      </c>
+      <c r="B2363" t="n">
+        <v>-7.198770102257169</v>
+      </c>
+      <c r="C2363" t="n">
+        <v>14.65835591745423</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>-7.904259945156262</v>
+      </c>
+      <c r="B2364" t="n">
+        <v>-7.904429015913685</v>
+      </c>
+      <c r="C2364" t="n">
+        <v>14.59450322980644</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>-8.609928657695836</v>
+      </c>
+      <c r="B2365" t="n">
+        <v>-8.610087929570202</v>
+      </c>
+      <c r="C2365" t="n">
+        <v>14.53065054215866</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>-9.315597370235409</v>
+      </c>
+      <c r="B2366" t="n">
+        <v>-9.315746843226719</v>
+      </c>
+      <c r="C2366" t="n">
+        <v>14.46679785451087</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>-10.02126608277498</v>
+      </c>
+      <c r="B2367" t="n">
+        <v>-10.02140575688324</v>
+      </c>
+      <c r="C2367" t="n">
+        <v>14.40294516686309</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>-10.72693479531456</v>
+      </c>
+      <c r="B2368" t="n">
+        <v>-10.72706467053975</v>
+      </c>
+      <c r="C2368" t="n">
+        <v>14.3390924792153</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>-11.43260350785413</v>
+      </c>
+      <c r="B2369" t="n">
+        <v>-11.43272358419627</v>
+      </c>
+      <c r="C2369" t="n">
+        <v>14.27523979156751</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>-12.1382722203937</v>
+      </c>
+      <c r="B2370" t="n">
+        <v>-12.13838249785279</v>
+      </c>
+      <c r="C2370" t="n">
+        <v>14.21138710391973</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>-12.84394093293328</v>
+      </c>
+      <c r="B2371" t="n">
+        <v>-12.84404141150931</v>
+      </c>
+      <c r="C2371" t="n">
+        <v>14.14753441627194</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>-13.54960964547285</v>
+      </c>
+      <c r="B2372" t="n">
+        <v>-13.54970032516582</v>
+      </c>
+      <c r="C2372" t="n">
+        <v>14.08368172862416</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>-14.25527835801242</v>
+      </c>
+      <c r="B2373" t="n">
+        <v>-14.25535923882234</v>
+      </c>
+      <c r="C2373" t="n">
+        <v>14.01982904097637</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>-14.960947070552</v>
+      </c>
+      <c r="B2374" t="n">
+        <v>-14.96101815247886</v>
+      </c>
+      <c r="C2374" t="n">
+        <v>13.95597635332859</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>-15.66661578309157</v>
+      </c>
+      <c r="B2375" t="n">
+        <v>-15.66667706613537</v>
+      </c>
+      <c r="C2375" t="n">
+        <v>13.8921236656808</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>-16.37228449563114</v>
+      </c>
+      <c r="B2376" t="n">
+        <v>-16.37233597979189</v>
+      </c>
+      <c r="C2376" t="n">
+        <v>13.82827097803302</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>-17.07795320817072</v>
+      </c>
+      <c r="B2377" t="n">
+        <v>-17.07799489344841</v>
+      </c>
+      <c r="C2377" t="n">
+        <v>13.76441829038523</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>-17.78362192071029</v>
+      </c>
+      <c r="B2378" t="n">
+        <v>-17.78365380710493</v>
+      </c>
+      <c r="C2378" t="n">
+        <v>13.70056560273744</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>-18.48929063324986</v>
+      </c>
+      <c r="B2379" t="n">
+        <v>-18.48931272076144</v>
+      </c>
+      <c r="C2379" t="n">
+        <v>13.63671291508966</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>-19.19495934578944</v>
+      </c>
+      <c r="B2380" t="n">
+        <v>-19.19497163441796</v>
+      </c>
+      <c r="C2380" t="n">
+        <v>13.57286022744187</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>-19.90062805832901</v>
+      </c>
+      <c r="B2381" t="n">
+        <v>-19.90063054807447</v>
+      </c>
+      <c r="C2381" t="n">
+        <v>13.50900753979409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/path_planning/test_scripts/Testing.xlsx
+++ b/src/path_planning/test_scripts/Testing.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1376"/>
+  <dimension ref="A1:C1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -15555,6 +15555,6694 @@
       </c>
       <c r="C1376" t="n">
         <v>13.50480809549391</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>10.43363023551159</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>10.43320741423201</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>16.2483817395702</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>9.727955863392872</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>9.022281491274157</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>8.316607119155442</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>7.610932747036728</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>6.905258374918013</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>6.199584002799298</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>5.493909630680584</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>4.788235258561869</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>4.082560886443154</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>3.37688651432444</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>2.671212142205725</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>1.96553777008701</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>1.259863397968296</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>0.5541890258495812</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>-0.1514853462691333</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>-0.857159718387848</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>-0.8574260859386212</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>-1.562834090506563</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>-2.268508462625277</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>-2.974182834743992</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>-3.679857206862707</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>-4.385531578981421</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>-5.091205951100136</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>-5.796880323218851</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>-6.502554695337565</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>-7.20822906745628</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>-7.913903439574995</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>-7.914072023545267</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>-8.619577811693709</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>-8.619736617305932</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="n">
+        <v>-9.325252183812424</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>-9.325401211066596</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="n">
+        <v>-14.26497278864343</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>-14.26505336739125</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="n">
+        <v>-15.67632153288086</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>-17.08771174243391</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>-19.20470552371591</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>-19.91037011747657</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>10.43363023551159</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>10.43320741423201</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>16.2483817395702</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>9.727955863392872</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>9.022281491274157</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>8.316607119155442</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>7.610932747036728</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>6.905258374918013</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>6.199584002799298</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>5.493909630680584</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>4.788235258561869</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>4.082560886443154</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>3.37688651432444</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>2.671212142205725</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>1.96553777008701</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>1.259863397968296</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>0.5541890258495812</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>-0.1514853462691333</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>-0.857159718387848</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>-0.8574260859386212</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>-1.562834090506563</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>-2.268508462625277</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>-2.974182834743992</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>-3.679857206862707</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>-4.385531578981421</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>-5.091205951100136</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>-5.796880323218851</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>-6.502554695337565</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>-7.20822906745628</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>-7.913903439574995</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>-7.914072023545267</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>-8.619577811693709</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>-8.619736617305932</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>-9.325252183812424</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>-9.325401211066596</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>-14.26497278864343</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>-14.26505336739125</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="n">
+        <v>-15.67632153288086</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>-17.08771174243391</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>-19.20470552371591</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>-19.91037011747657</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="n">
+        <v>10.43363023551159</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>10.43320741423201</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>16.2483817395702</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="n">
+        <v>9.727955863392872</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="n">
+        <v>9.022281491274157</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="n">
+        <v>8.316607119155442</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>7.610932747036728</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>6.905258374918013</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>6.199584002799298</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>5.493909630680584</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>4.788235258561869</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>4.082560886443154</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>3.37688651432444</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>2.671212142205725</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>1.96553777008701</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>1.259863397968296</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>0.5541890258495812</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>-0.1514853462691333</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>-0.857159718387848</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>-0.8574260859386212</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>-1.562834090506563</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>-2.268508462625277</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>-2.974182834743992</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>-3.679857206862707</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>-4.385531578981421</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>-5.091205951100136</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>-5.796880323218851</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>-6.502554695337565</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>-7.20822906745628</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>-7.913903439574995</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>-7.914072023545267</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>-8.619577811693709</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>-8.619736617305932</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>-9.325252183812424</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>-9.325401211066596</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>-14.26497278864343</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>-14.26505336739125</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>-15.67632153288086</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>-17.08771174243391</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>-19.20470552371591</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>-19.91037011747657</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>10.43363023551159</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>10.43320741423201</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>16.2483817395702</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>9.727955863392872</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>9.022281491274157</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>8.316607119155442</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>7.610932747036728</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>6.905258374918013</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>6.199584002799298</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>5.493909630680584</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>4.788235258561869</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>4.082560886443154</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>3.37688651432444</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>2.671212142205725</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>1.96553777008701</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>1.259863397968296</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>0.5541890258495812</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>-0.1514853462691333</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>-0.857159718387848</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>-0.8574260859386212</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>-1.562834090506563</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>-2.268508462625277</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>-2.974182834743992</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>-3.679857206862707</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>-4.385531578981421</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>-5.091205951100136</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>-5.796880323218851</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>-6.502554695337565</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>-7.20822906745628</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>-7.913903439574995</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>-7.914072023545267</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>-8.619577811693709</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>-8.619736617305932</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>-9.325252183812424</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>-9.325401211066596</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>-14.26497278864343</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>-14.26505336739125</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>-15.67632153288086</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>-17.08771174243391</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>-19.20470552371591</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>-19.91037011747657</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>9.727955863392872</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>9.022281491274157</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>8.316607119155442</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>7.610932747036728</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>6.905258374918013</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>6.199584002799298</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>5.493909630680584</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>4.788235258561869</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>4.082560886443154</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>3.37688651432444</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>2.671212142205725</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>1.96553777008701</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>1.259863397968296</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>0.5541890258495812</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>-0.1514853462691333</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>-0.857159718387848</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>-0.8574260859386212</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>-1.562834090506563</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>-2.268508462625277</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>-2.974182834743992</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>-3.679857206862707</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>-4.385531578981421</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>-5.091205951100136</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>-5.796880323218851</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>-6.502554695337565</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>-7.20822906745628</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>-7.913903439574995</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>-7.914072023545267</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>-8.619577811693709</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>-8.619736617305932</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>-9.325252183812424</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>-9.325401211066596</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>-14.26497278864343</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>-14.26505336739125</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>-15.67632153288086</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>-17.08771174243391</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>-19.20470552371591</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>-19.91037011747657</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>9.727955863392872</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>9.727542820471349</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>9.022281491274157</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>9.021878226710685</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>8.316607119155442</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>8.316213632950021</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>7.610932747036728</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>7.610549039189356</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>6.905258374918013</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>6.904884445428692</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>6.199584002799298</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>6.199219851668028</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>5.493909630680584</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>5.493555257907364</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>4.788235258561869</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>4.787890664146699</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>4.082560886443154</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>4.082226070386033</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>3.37688651432444</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>3.376561476625369</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>2.671212142205725</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>2.670896882864704</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>1.96553777008701</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>1.965232289104039</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>1.259863397968296</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>1.259567695343375</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>0.5541890258495812</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>0.5539031015827098</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>-0.1514853462691333</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>-0.1517614921779548</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>-0.8571597183878479</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>-0.8574260859386195</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>-1.562834090506562</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>-1.563090679699284</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>-2.268508462625277</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>-2.268755273459949</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>-2.974182834743992</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>-2.974419867220613</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>-3.679857206862706</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>-3.680084460981278</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>-4.38553157898142</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>-4.385749054741943</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>-5.091205951100135</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>-5.091413648502607</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>-5.79688032321885</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>-5.797078242263272</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>-6.502554695337564</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>-6.502742836023936</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>-7.208229067456279</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>-7.2084074297846</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>-7.913903439574994</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>-7.914072023545264</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>-8.619577811693707</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>-8.619736617305929</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>-9.325252183812422</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>-9.325401211066593</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>-12.85372417986991</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>-14.26497278864342</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>-14.26505336739124</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>-15.67632153288085</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>-17.0877117424339</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>-19.2047055237159</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>-19.91037011747656</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>9.727955863392872</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>9.727542820471349</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>9.022281491274157</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>9.021878226710685</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>8.316607119155442</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>8.316213632950021</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>7.610932747036728</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>7.610549039189356</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>6.905258374918013</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>6.904884445428692</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>6.199584002799298</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>6.199219851668028</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>5.493909630680584</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>5.493555257907364</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>4.788235258561869</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>4.787890664146699</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>4.082560886443154</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>4.082226070386033</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>3.37688651432444</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>3.376561476625369</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>2.671212142205725</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>2.670896882864704</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>1.96553777008701</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>1.965232289104039</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>1.259863397968296</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>1.259567695343375</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>0.5541890258495812</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>0.5539031015827098</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>-0.1514853462691333</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>-0.1517614921779548</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>-0.8571597183878479</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>-0.8574260859386195</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>-1.562834090506562</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>-1.563090679699284</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>-2.268508462625277</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>-2.268755273459949</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>-2.974182834743992</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>-2.974419867220613</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>-3.679857206862706</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>-3.680084460981278</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>-4.38553157898142</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>-4.385749054741943</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>-5.091205951100135</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>-5.091413648502607</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>-5.79688032321885</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>-5.797078242263272</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>-6.502554695337564</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>-6.502742836023936</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>-7.208229067456279</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>-7.2084074297846</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>-7.913903439574994</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>-7.914072023545264</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>-8.619577811693707</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>-8.619736617305929</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>-9.325252183812422</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>-9.325401211066593</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>-12.85372417986991</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>-14.26497278864342</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>-14.26505336739124</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>-15.67632153288085</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>-17.0877117424339</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>-19.2047055237159</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>-19.91037011747656</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>9.727955863392873</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>9.727542820471349</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>9.022281491274159</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>9.021878226710685</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>8.316607119155444</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>8.316213632950021</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>7.610932747036729</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>7.610549039189356</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>6.905258374918015</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>6.904884445428692</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>6.1995840027993</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>6.199219851668028</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>5.493909630680585</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>5.493555257907364</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>4.788235258561871</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>4.787890664146699</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>4.082560886443156</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>4.082226070386033</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>3.376886514324442</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>3.376561476625369</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>2.671212142205727</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>2.670896882864704</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>1.965537770087012</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>1.965232289104039</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>1.259863397968298</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>1.259567695343375</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>0.554189025849583</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>0.5539031015827098</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>-0.1514853462691316</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>-0.1517614921779548</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>-0.8571597183878462</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>-0.8574260859386195</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>-1.562834090506561</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>-1.563090679699284</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>-2.268508462625276</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>-2.268755273459949</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>-2.97418283474399</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>-2.974419867220613</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>-3.679857206862705</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>-3.680084460981278</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>-4.38553157898142</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>-4.385749054741943</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>-5.091205951100134</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>-5.091413648502607</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>-5.796880323218849</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>-5.797078242263272</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>-6.502554695337563</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>-6.502742836023936</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>-7.208229067456278</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>-7.2084074297846</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>-7.913903439574993</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>-7.914072023545264</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>-8.619577811693707</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>-8.619736617305929</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>-9.325252183812422</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>-9.325401211066593</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>-12.85372417986991</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>-14.26497278864342</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>-14.26505336739124</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>-15.67632153288085</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>-17.0877117424339</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>-19.2047055237159</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>-19.91037011747656</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>10.43363023551159</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>10.43320741423201</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>16.2483817395702</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>9.727955863392873</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>9.022281491274159</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>8.316607119155444</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>7.610932747036729</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>6.905258374918015</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>6.1995840027993</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>5.493909630680585</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>4.788235258561871</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>4.082560886443156</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>3.376886514324442</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>2.671212142205727</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>1.965537770087012</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>1.259863397968298</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>0.554189025849583</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>-0.1514853462691316</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>-0.8571597183878462</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>-0.8574260859386211</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>-1.562834090506561</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>-2.268508462625276</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>-2.97418283474399</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>-3.679857206862705</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>-4.38553157898142</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>-5.091205951100134</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>-5.796880323218849</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>-6.502554695337563</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>-7.208229067456278</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>-7.913903439574993</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>-7.914072023545266</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>-8.619577811693707</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>-8.61973661730593</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>-9.325252183812422</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>-9.325401211066595</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>-14.26497278864342</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>-14.26505336739124</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>-15.67632153288085</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>-17.0877117424339</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>-19.2047055237159</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>-19.91037011747656</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>10.43363023551159</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>10.43320741423201</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>16.2483817395702</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>9.727955863392873</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>9.022281491274159</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>8.316607119155444</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>7.610932747036729</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>6.905258374918015</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>6.1995840027993</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>5.493909630680585</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>4.788235258561871</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>4.082560886443156</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>3.376886514324442</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>2.671212142205727</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>1.965537770087012</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>1.259863397968298</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>0.554189025849583</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>-0.1514853462691316</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>-0.8571597183878462</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>-0.8574260859386211</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>-1.562834090506561</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>-2.268508462625276</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>-2.97418283474399</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>-3.679857206862705</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>-4.38553157898142</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>-5.091205951100134</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>-5.796880323218849</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>-6.502554695337563</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>-7.208229067456278</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>-7.913903439574993</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>-7.914072023545266</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>-8.619577811693707</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>-8.61973661730593</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>-9.325252183812422</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>-9.325401211066595</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>-14.26497278864342</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>-14.26505336739124</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>-15.67632153288085</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>-17.0877117424339</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>-19.2047055237159</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>-19.91037011747656</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>9.727955863392873</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>9.022281491274159</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>8.316607119155444</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>7.610932747036729</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>6.905258374918015</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>6.1995840027993</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>5.493909630680585</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>4.788235258561871</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>4.082560886443156</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>3.376886514324442</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>2.671212142205727</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>1.965537770087012</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>1.259863397968298</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>0.554189025849583</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>-0.1514853462691316</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>-0.8571597183878462</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>-0.8574260859386211</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>-1.562834090506561</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>-2.268508462625276</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>-2.97418283474399</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>-3.679857206862705</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>-4.38553157898142</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>-5.091205951100134</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>-5.796880323218849</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>-6.502554695337563</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>-7.208229067456278</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>-7.913903439574993</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>-7.914072023545266</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>-8.619577811693707</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>-8.61973661730593</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>-9.325252183812422</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>-9.325401211066595</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>-14.26497278864342</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>-14.26505336739124</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>-15.67632153288085</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>-17.0877117424339</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>-19.2047055237159</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>-19.91037011747656</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>9.727955863392873</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>9.022281491274159</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>8.316607119155444</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>7.610932747036729</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>6.905258374918015</v>
+      </c>
+      <c r="B1860" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>6.1995840027993</v>
+      </c>
+      <c r="B1861" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>5.493909630680585</v>
+      </c>
+      <c r="B1862" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>4.788235258561871</v>
+      </c>
+      <c r="B1863" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>4.082560886443156</v>
+      </c>
+      <c r="B1864" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>3.376886514324442</v>
+      </c>
+      <c r="B1865" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>2.671212142205727</v>
+      </c>
+      <c r="B1866" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>1.965537770087012</v>
+      </c>
+      <c r="B1867" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>1.259863397968298</v>
+      </c>
+      <c r="B1868" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>0.554189025849583</v>
+      </c>
+      <c r="B1869" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>-0.1514853462691316</v>
+      </c>
+      <c r="B1870" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>-0.8571597183878462</v>
+      </c>
+      <c r="B1871" t="n">
+        <v>-0.8574260859386211</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>-1.562834090506561</v>
+      </c>
+      <c r="B1872" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>-2.268508462625276</v>
+      </c>
+      <c r="B1873" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>-2.97418283474399</v>
+      </c>
+      <c r="B1874" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>-3.679857206862705</v>
+      </c>
+      <c r="B1875" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>-4.38553157898142</v>
+      </c>
+      <c r="B1876" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>-5.091205951100134</v>
+      </c>
+      <c r="B1877" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>-5.796880323218849</v>
+      </c>
+      <c r="B1878" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>-6.502554695337563</v>
+      </c>
+      <c r="B1879" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>-7.208229067456278</v>
+      </c>
+      <c r="B1880" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>-7.913903439574993</v>
+      </c>
+      <c r="B1881" t="n">
+        <v>-7.914072023545266</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>-8.619577811693707</v>
+      </c>
+      <c r="B1882" t="n">
+        <v>-8.61973661730593</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>-9.325252183812422</v>
+      </c>
+      <c r="B1883" t="n">
+        <v>-9.325401211066595</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1884" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1885" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1886" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1887" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1888" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1889" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>-14.26497278864342</v>
+      </c>
+      <c r="B1890" t="n">
+        <v>-14.26505336739124</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1891" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>-15.67632153288085</v>
+      </c>
+      <c r="B1892" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1893" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1894" t="n">
+        <v>-17.0877117424339</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1895" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1896" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1897" t="n">
+        <v>-19.2047055237159</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1898" t="n">
+        <v>-19.91037011747656</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>9.727955863392873</v>
+      </c>
+      <c r="B1899" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>9.022281491274159</v>
+      </c>
+      <c r="B1900" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>8.316607119155444</v>
+      </c>
+      <c r="B1901" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>7.610932747036729</v>
+      </c>
+      <c r="B1902" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>6.905258374918015</v>
+      </c>
+      <c r="B1903" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>6.1995840027993</v>
+      </c>
+      <c r="B1904" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>5.493909630680585</v>
+      </c>
+      <c r="B1905" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>4.788235258561871</v>
+      </c>
+      <c r="B1906" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>4.082560886443156</v>
+      </c>
+      <c r="B1907" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>3.376886514324442</v>
+      </c>
+      <c r="B1908" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>2.671212142205727</v>
+      </c>
+      <c r="B1909" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>1.965537770087012</v>
+      </c>
+      <c r="B1910" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>1.259863397968298</v>
+      </c>
+      <c r="B1911" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>0.554189025849583</v>
+      </c>
+      <c r="B1912" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>-0.1514853462691316</v>
+      </c>
+      <c r="B1913" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>-0.8571597183878462</v>
+      </c>
+      <c r="B1914" t="n">
+        <v>-0.8574260859386211</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>-1.562834090506561</v>
+      </c>
+      <c r="B1915" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>-2.268508462625276</v>
+      </c>
+      <c r="B1916" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>-2.97418283474399</v>
+      </c>
+      <c r="B1917" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>-3.679857206862705</v>
+      </c>
+      <c r="B1918" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>-4.38553157898142</v>
+      </c>
+      <c r="B1919" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>-5.091205951100134</v>
+      </c>
+      <c r="B1920" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>-5.796880323218849</v>
+      </c>
+      <c r="B1921" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>-6.502554695337563</v>
+      </c>
+      <c r="B1922" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>-7.208229067456278</v>
+      </c>
+      <c r="B1923" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>-7.913903439574993</v>
+      </c>
+      <c r="B1924" t="n">
+        <v>-7.914072023545266</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>-8.619577811693707</v>
+      </c>
+      <c r="B1925" t="n">
+        <v>-8.61973661730593</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>-9.325252183812422</v>
+      </c>
+      <c r="B1926" t="n">
+        <v>-9.325401211066595</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1927" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1928" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1929" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1930" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1931" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1932" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>-14.26497278864342</v>
+      </c>
+      <c r="B1933" t="n">
+        <v>-14.26505336739124</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1934" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>-15.67632153288085</v>
+      </c>
+      <c r="B1935" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1936" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1937" t="n">
+        <v>-17.0877117424339</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1938" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1939" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1940" t="n">
+        <v>-19.2047055237159</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1941" t="n">
+        <v>-19.91037011747656</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>13.50811024095139</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>9.727955863392873</v>
+      </c>
+      <c r="B1942" t="n">
+        <v>9.727542820471347</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>16.18465449541628</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>9.022281491274159</v>
+      </c>
+      <c r="B1943" t="n">
+        <v>9.021878226710683</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>16.12092725126235</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>8.316607119155444</v>
+      </c>
+      <c r="B1944" t="n">
+        <v>8.316213632950019</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>16.05720000710842</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>7.610932747036729</v>
+      </c>
+      <c r="B1945" t="n">
+        <v>7.610549039189355</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>15.99347276295449</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>6.905258374918015</v>
+      </c>
+      <c r="B1946" t="n">
+        <v>6.90488444542869</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>15.92974551880057</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>6.1995840027993</v>
+      </c>
+      <c r="B1947" t="n">
+        <v>6.199219851668026</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>15.86601827464664</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>5.493909630680585</v>
+      </c>
+      <c r="B1948" t="n">
+        <v>5.493555257907362</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>15.80229103049272</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>4.788235258561871</v>
+      </c>
+      <c r="B1949" t="n">
+        <v>4.787890664146697</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>15.73856378633879</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>4.082560886443156</v>
+      </c>
+      <c r="B1950" t="n">
+        <v>4.082226070386032</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>15.67483654218487</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>3.376886514324442</v>
+      </c>
+      <c r="B1951" t="n">
+        <v>3.376561476625367</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>15.61110929803094</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>2.671212142205727</v>
+      </c>
+      <c r="B1952" t="n">
+        <v>2.670896882864702</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>15.54738205387702</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>1.965537770087012</v>
+      </c>
+      <c r="B1953" t="n">
+        <v>1.965232289104037</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>15.48365480972309</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>1.259863397968298</v>
+      </c>
+      <c r="B1954" t="n">
+        <v>1.259567695343373</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>15.41992756556916</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>0.554189025849583</v>
+      </c>
+      <c r="B1955" t="n">
+        <v>0.5539031015827081</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>15.35620032141524</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>-0.1514853462691316</v>
+      </c>
+      <c r="B1956" t="n">
+        <v>-0.1517614921779565</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>15.29247307726131</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>-0.8571597183878462</v>
+      </c>
+      <c r="B1957" t="n">
+        <v>-0.8574260859386211</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>15.22874583310739</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>-1.562834090506561</v>
+      </c>
+      <c r="B1958" t="n">
+        <v>-1.563090679699286</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>15.16501858895346</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>-2.268508462625276</v>
+      </c>
+      <c r="B1959" t="n">
+        <v>-2.26875527345995</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>15.10129134479954</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>-2.97418283474399</v>
+      </c>
+      <c r="B1960" t="n">
+        <v>-2.974419867220615</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>15.03756410064561</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>-3.679857206862705</v>
+      </c>
+      <c r="B1961" t="n">
+        <v>-3.68008446098128</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>14.97383685649169</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>-4.38553157898142</v>
+      </c>
+      <c r="B1962" t="n">
+        <v>-4.385749054741945</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>14.91010961233776</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>-5.091205951100134</v>
+      </c>
+      <c r="B1963" t="n">
+        <v>-5.091413648502609</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>14.84638236818383</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>-5.796880323218849</v>
+      </c>
+      <c r="B1964" t="n">
+        <v>-5.797078242263273</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>14.78265512402991</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>-6.502554695337563</v>
+      </c>
+      <c r="B1965" t="n">
+        <v>-6.502742836023938</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>14.71892787987598</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>-7.208229067456278</v>
+      </c>
+      <c r="B1966" t="n">
+        <v>-7.208407429784602</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>14.65520063572206</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>-7.913903439574993</v>
+      </c>
+      <c r="B1967" t="n">
+        <v>-7.914072023545266</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>14.59147339156813</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>-8.619577811693707</v>
+      </c>
+      <c r="B1968" t="n">
+        <v>-8.61973661730593</v>
+      </c>
+      <c r="C1968" t="n">
+        <v>14.52774614741421</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>-9.325252183812422</v>
+      </c>
+      <c r="B1969" t="n">
+        <v>-9.325401211066595</v>
+      </c>
+      <c r="C1969" t="n">
+        <v>14.46401890326028</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>-10.03092655593114</v>
+      </c>
+      <c r="B1970" t="n">
+        <v>-10.03106580482726</v>
+      </c>
+      <c r="C1970" t="n">
+        <v>14.40029165910635</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>-10.73660092804985</v>
+      </c>
+      <c r="B1971" t="n">
+        <v>-10.73673039858792</v>
+      </c>
+      <c r="C1971" t="n">
+        <v>14.33656441495243</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>-11.44227530016857</v>
+      </c>
+      <c r="B1972" t="n">
+        <v>-11.44239499234859</v>
+      </c>
+      <c r="C1972" t="n">
+        <v>14.2728371707985</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>-12.14794967228728</v>
+      </c>
+      <c r="B1973" t="n">
+        <v>-12.14805958610925</v>
+      </c>
+      <c r="C1973" t="n">
+        <v>14.20910992664458</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>-12.853624044406</v>
+      </c>
+      <c r="B1974" t="n">
+        <v>-12.85372417986992</v>
+      </c>
+      <c r="C1974" t="n">
+        <v>14.14538268249065</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>-13.55929841652471</v>
+      </c>
+      <c r="B1975" t="n">
+        <v>-13.55938877363058</v>
+      </c>
+      <c r="C1975" t="n">
+        <v>14.08165543833673</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>-14.26497278864342</v>
+      </c>
+      <c r="B1976" t="n">
+        <v>-14.26505336739124</v>
+      </c>
+      <c r="C1976" t="n">
+        <v>14.0179281941828</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>-14.97064716076214</v>
+      </c>
+      <c r="B1977" t="n">
+        <v>-14.97071796115191</v>
+      </c>
+      <c r="C1977" t="n">
+        <v>13.95420095002888</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>-15.67632153288085</v>
+      </c>
+      <c r="B1978" t="n">
+        <v>-15.67638255491257</v>
+      </c>
+      <c r="C1978" t="n">
+        <v>13.89047370587495</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>-16.38199590499957</v>
+      </c>
+      <c r="B1979" t="n">
+        <v>-16.38204714867324</v>
+      </c>
+      <c r="C1979" t="n">
+        <v>13.82674646172102</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>-17.08767027711828</v>
+      </c>
+      <c r="B1980" t="n">
+        <v>-17.0877117424339</v>
+      </c>
+      <c r="C1980" t="n">
+        <v>13.7630192175671</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>-17.793344649237</v>
+      </c>
+      <c r="B1981" t="n">
+        <v>-17.79337633619457</v>
+      </c>
+      <c r="C1981" t="n">
+        <v>13.69929197341317</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>-18.49901902135571</v>
+      </c>
+      <c r="B1982" t="n">
+        <v>-18.49904092995524</v>
+      </c>
+      <c r="C1982" t="n">
+        <v>13.63556472925925</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>-19.20469339347443</v>
+      </c>
+      <c r="B1983" t="n">
+        <v>-19.2047055237159</v>
+      </c>
+      <c r="C1983" t="n">
+        <v>13.57183748510532</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>-19.91036776559314</v>
+      </c>
+      <c r="B1984" t="n">
+        <v>-19.91037011747656</v>
+      </c>
+      <c r="C1984" t="n">
+        <v>13.50811024095139</v>
       </c>
     </row>
   </sheetData>
@@ -15568,7 +22256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -15928,6 +22616,160 @@
         <v>16.22768079735886</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18.19604832881745</v>
+      </c>
+      <c r="B33" t="n">
+        <v>18.19551794559932</v>
+      </c>
+      <c r="C33" t="n">
+        <v>16.9493814252634</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17.49037395669873</v>
+      </c>
+      <c r="B34" t="n">
+        <v>17.48985335183866</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16.88565418110948</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16.78469958458002</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16.78418875807799</v>
+      </c>
+      <c r="C35" t="n">
+        <v>16.82192693695555</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>16.0790252124613</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16.07852416431733</v>
+      </c>
+      <c r="C36" t="n">
+        <v>16.75819969280162</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>15.37335084034259</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15.37285957055666</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16.69447244864769</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>15.37335084034259</v>
+      </c>
+      <c r="B38" t="n">
+        <v>15.37285957055666</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16.69447244864769</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>14.66767646822388</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14.667194976796</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16.63074520449377</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>13.96200209610516</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13.96153038303533</v>
+      </c>
+      <c r="C40" t="n">
+        <v>16.56701796033984</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>13.25632772398645</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.25586578927467</v>
+      </c>
+      <c r="C41" t="n">
+        <v>16.50329071618591</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>12.55065335186773</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12.550201195514</v>
+      </c>
+      <c r="C42" t="n">
+        <v>16.43956347203198</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11.84497897974902</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11.84453660175334</v>
+      </c>
+      <c r="C43" t="n">
+        <v>16.37583622787806</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11.1393046076303</v>
+      </c>
+      <c r="B44" t="n">
+        <v>11.13887200799268</v>
+      </c>
+      <c r="C44" t="n">
+        <v>16.31210898372413</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11.1393046076303</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11.13887200799268</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16.31210898372413</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11.1393046076303</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11.13887200799268</v>
+      </c>
+      <c r="C46" t="n">
+        <v>16.31210898372413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
